--- a/Assignments/A01/MVA data.xlsx
+++ b/Assignments/A01/MVA data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10566859_polimi_it/Documents/Magistrale/Computer Systems Performance Evaluation/Assignments/A01/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Polimi\2020-computer-systems-performance-evaluation\Assignments\A01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="387" documentId="13_ncr:1_{3807B756-EF19-4D2D-9E8F-4D3783853387}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5487A5A2-BC98-4D1C-AD7B-E115E271B745}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7096EF9-B31A-4001-AE85-7B9DFF051988}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{9512203D-D33A-624C-A353-928C45FEB173}"/>
+    <workbookView xWindow="-195" yWindow="-195" windowWidth="29190" windowHeight="16140" activeTab="2" xr2:uid="{9512203D-D33A-624C-A353-928C45FEB173}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -363,7 +363,7 @@
     <numFmt numFmtId="166" formatCode="0.00000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -393,16 +393,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF141414"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,12 +415,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1090,7 +1076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1266,7 +1252,6 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1294,6 +1279,13 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1345,29 +1337,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="38">
     <dxf>
       <fill>
         <patternFill>
@@ -1817,19 +1791,19 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2440,6 +2414,7 @@
               </a:r>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2680,23 +2655,11 @@
                           <a:schemeClr val="dk1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>…,</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="it-IT" sz="1100" b="0" i="1" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="dk1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
                         <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>6</m:t>
+                      <m:t>…,6</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -2759,7 +2722,7 @@
                         <a:rPr lang="it-IT" sz="1100" b="0" i="1" baseline="0">
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         </a:rPr>
-                        <m:t>−2</m:t>
+                        <m:t>−5</m:t>
                       </m:r>
                     </m:sup>
                   </m:sSup>
@@ -2833,6 +2796,7 @@
               </a:r>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="it-IT" sz="1100" b="0" i="0" baseline="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -2873,31 +2837,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>        k = 1,</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="it-IT" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"…,</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="it-IT" sz="1100" b="0" i="0" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>6</a:t>
+                <a:t>        k = 1,"…,6</a:t>
               </a:r>
               <a:endParaRPr lang="it-IT" sz="1100" baseline="0">
                 <a:solidFill>
@@ -2941,7 +2881,7 @@
                 <a:rPr lang="it-IT" sz="1100" b="0" i="0" baseline="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>=10^(−2)</a:t>
+                <a:t>=10^(−5)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="it-IT" sz="1100" b="0" baseline="0"/>
@@ -2959,23 +2899,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5972BA4C-66B9-4940-A838-EFF21AB89B9A}" name="Tabella1" displayName="Tabella1" ref="A9:O51" totalsRowShown="0" headerRowDxfId="38" headerRowBorderDxfId="37" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5972BA4C-66B9-4940-A838-EFF21AB89B9A}" name="Tabella1" displayName="Tabella1" ref="A9:O51" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="A9:O51" xr:uid="{364593A8-67FA-4BDD-941F-EC3718B15EA1}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{036B605A-8A74-43E3-B6D8-592EF092AE3B}" name="N"/>
-    <tableColumn id="2" xr3:uid="{4F9154D3-7800-462B-AF78-B9BB2133DF44}" name="R1" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{EDF16784-7C7F-4D8C-85CE-123F3D872DBF}" name="R2" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{44F4CB99-876D-4037-8190-E2CC4469F73B}" name="R3" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{28B7A4A7-C376-45AA-B505-37446A113C9B}" name="R4" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{9C331D0C-4563-4A7F-8113-B13735559618}" name="R5" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{4F9154D3-7800-462B-AF78-B9BB2133DF44}" name="R1" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{EDF16784-7C7F-4D8C-85CE-123F3D872DBF}" name="R2" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{44F4CB99-876D-4037-8190-E2CC4469F73B}" name="R3" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{28B7A4A7-C376-45AA-B505-37446A113C9B}" name="R4" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{9C331D0C-4563-4A7F-8113-B13735559618}" name="R5" dataDxfId="30"/>
     <tableColumn id="7" xr3:uid="{038410E2-4B91-4D78-8732-F32EDBEDAFB8}" name="R6"/>
-    <tableColumn id="8" xr3:uid="{20DCC23B-BAC7-467B-AF2D-CF817EEC66AF}" name="R" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{20DCC23B-BAC7-467B-AF2D-CF817EEC66AF}" name="R" dataDxfId="29"/>
     <tableColumn id="9" xr3:uid="{E34B3B96-0219-4389-AEED-8E7205C5145D}" name="X"/>
-    <tableColumn id="10" xr3:uid="{3B3442A3-E388-4450-A320-F1DB414E10CB}" name="N1" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{5F2AAA8C-C6FC-41D0-BA25-4F48438B667B}" name="N2" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{546D00E9-FED4-4713-AFFB-43DE07C6C87F}" name="N3" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{B0CA3BBC-7FF7-4229-815E-75A4F5EBC762}" name="N4" dataDxfId="26"/>
-    <tableColumn id="14" xr3:uid="{8ED85235-DF82-4457-A414-088CB3A4DDDF}" name="N5" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{3B3442A3-E388-4450-A320-F1DB414E10CB}" name="N1" dataDxfId="28"/>
+    <tableColumn id="11" xr3:uid="{5F2AAA8C-C6FC-41D0-BA25-4F48438B667B}" name="N2" dataDxfId="27"/>
+    <tableColumn id="12" xr3:uid="{546D00E9-FED4-4713-AFFB-43DE07C6C87F}" name="N3" dataDxfId="26"/>
+    <tableColumn id="13" xr3:uid="{B0CA3BBC-7FF7-4229-815E-75A4F5EBC762}" name="N4" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{8ED85235-DF82-4457-A414-088CB3A4DDDF}" name="N5" dataDxfId="24"/>
     <tableColumn id="15" xr3:uid="{E5245FF9-F53E-4F3E-AF53-0E96E85F9AC4}" name="N6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2983,30 +2923,30 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ED44C061-3759-4418-BC1E-9EAE69BD5C36}" name="Tabella13" displayName="Tabella13" ref="A9:U51" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="22" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{ED44C061-3759-4418-BC1E-9EAE69BD5C36}" name="Tabella13" displayName="Tabella13" ref="A9:U51" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="A9:U51" xr:uid="{9BF5B0F0-6919-405A-8544-1B974FF7A833}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{E4C2C357-D0A4-491C-B180-5E2AE4F0F265}" name="Iter"/>
-    <tableColumn id="2" xr3:uid="{46EA3880-1F36-4586-AC16-A05F9F5B4BDA}" name="R1" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{9EADFE0F-BCFC-4E1F-901A-97258FB71BDD}" name="R2" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{2A022127-9C43-402A-A7FB-CCCB9085B04A}" name="R3" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{75541E39-63AD-4C89-9249-BF2ECFF81364}" name="R4" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{2D6A3A17-5F14-471C-A81C-84F96130F778}" name="R5" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{ACB4D966-D389-4DD1-B71D-798D5EAD4B95}" name="R6" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{36799A39-4B6A-49E1-849C-8BF48C0C36E4}" name="R" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{F300AB12-B85B-4661-9C94-962F46988651}" name="X" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{BE80FB72-51CE-43BE-B2A6-686087D151C6}" name="N1" dataDxfId="13"/>
-    <tableColumn id="11" xr3:uid="{71F031DC-874F-4B6A-810F-841FC241F2E4}" name="N2" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{C86824E7-7BE3-41B4-9DE8-2CD407B00E02}" name="N3" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{3F10B177-E9F9-45B7-8E6A-7F158F999393}" name="N4" dataDxfId="10"/>
-    <tableColumn id="14" xr3:uid="{0D7C44FB-98BF-4B33-8E47-3348D7588AAD}" name="N5" dataDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{92D0F868-722E-4FB1-B2B6-5B9C6D2113BB}" name="N6" dataDxfId="8"/>
-    <tableColumn id="16" xr3:uid="{40544C57-2696-404D-A4DF-FB6166017ADB}" name="err1" dataDxfId="7"/>
-    <tableColumn id="17" xr3:uid="{30772A86-8DCC-4D8F-ABDF-C2DFD62D4221}" name="err2" dataDxfId="6"/>
-    <tableColumn id="18" xr3:uid="{9FEE08A8-D644-4F51-AFF2-9BD922909C02}" name="err3" dataDxfId="5"/>
-    <tableColumn id="19" xr3:uid="{EA0CE3C0-A00B-4CF4-92DE-271511C6EA15}" name="err4" dataDxfId="4"/>
-    <tableColumn id="20" xr3:uid="{173A5C56-15F8-47CA-9397-DA56CBC93A56}" name="err5" dataDxfId="3"/>
-    <tableColumn id="21" xr3:uid="{0EC5FA6A-F16E-491F-85E0-9BD856AC98B3}" name="err6" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{46EA3880-1F36-4586-AC16-A05F9F5B4BDA}" name="R1" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{9EADFE0F-BCFC-4E1F-901A-97258FB71BDD}" name="R2" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{2A022127-9C43-402A-A7FB-CCCB9085B04A}" name="R3" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{75541E39-63AD-4C89-9249-BF2ECFF81364}" name="R4" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{2D6A3A17-5F14-471C-A81C-84F96130F778}" name="R5" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{ACB4D966-D389-4DD1-B71D-798D5EAD4B95}" name="R6" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{36799A39-4B6A-49E1-849C-8BF48C0C36E4}" name="R" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{F300AB12-B85B-4661-9C94-962F46988651}" name="X" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{BE80FB72-51CE-43BE-B2A6-686087D151C6}" name="N1" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{71F031DC-874F-4B6A-810F-841FC241F2E4}" name="N2" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{C86824E7-7BE3-41B4-9DE8-2CD407B00E02}" name="N3" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{3F10B177-E9F9-45B7-8E6A-7F158F999393}" name="N4" dataDxfId="9"/>
+    <tableColumn id="14" xr3:uid="{0D7C44FB-98BF-4B33-8E47-3348D7588AAD}" name="N5" dataDxfId="8"/>
+    <tableColumn id="15" xr3:uid="{92D0F868-722E-4FB1-B2B6-5B9C6D2113BB}" name="N6" dataDxfId="7"/>
+    <tableColumn id="16" xr3:uid="{40544C57-2696-404D-A4DF-FB6166017ADB}" name="err1" dataDxfId="6"/>
+    <tableColumn id="17" xr3:uid="{30772A86-8DCC-4D8F-ABDF-C2DFD62D4221}" name="err2" dataDxfId="5"/>
+    <tableColumn id="18" xr3:uid="{9FEE08A8-D644-4F51-AFF2-9BD922909C02}" name="err3" dataDxfId="4"/>
+    <tableColumn id="19" xr3:uid="{EA0CE3C0-A00B-4CF4-92DE-271511C6EA15}" name="err4" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{173A5C56-15F8-47CA-9397-DA56CBC93A56}" name="err5" dataDxfId="2"/>
+    <tableColumn id="21" xr3:uid="{0EC5FA6A-F16E-491F-85E0-9BD856AC98B3}" name="err6" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3326,44 +3266,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="107"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="113"/>
       <c r="F1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="105" t="s">
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="107"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="113"/>
       <c r="S1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="108" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="104"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="110"/>
       <c r="F2" s="14" t="s">
         <v>18</v>
       </c>
@@ -4759,13 +4699,13 @@
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="110"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="116"/>
       <c r="F23" s="34">
         <v>10</v>
       </c>
@@ -4810,13 +4750,13 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="105" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="101"/>
+      <c r="B24" s="106"/>
+      <c r="C24" s="106"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="107"/>
       <c r="F24" s="29">
         <v>1</v>
       </c>
@@ -4878,7 +4818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4496A6EE-94B0-4749-BDFD-43E8AA518A12}">
   <dimension ref="A1:W61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B50" sqref="B50:O50"/>
     </sheetView>
   </sheetViews>
@@ -4899,22 +4839,22 @@
       <c r="A1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="114" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="115"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="121"/>
       <c r="N1" s="53" t="s">
         <v>17</v>
       </c>
@@ -4982,13 +4922,13 @@
       <c r="F3" s="57">
         <v>0.1</v>
       </c>
-      <c r="G3" s="93">
+      <c r="G3" s="92">
         <v>1.25</v>
       </c>
       <c r="H3" s="58">
         <v>1</v>
       </c>
-      <c r="I3" s="93">
+      <c r="I3" s="92">
         <v>1</v>
       </c>
       <c r="J3" s="56">
@@ -5032,7 +4972,7 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="94"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="56">
         <f>B3*H3</f>
         <v>2</v>
@@ -5138,7 +5078,7 @@
       <c r="A11" s="43">
         <v>1</v>
       </c>
-      <c r="B11" s="88">
+      <c r="B11" s="87">
         <f>B$7*(1+J10)</f>
         <v>2</v>
       </c>
@@ -5162,7 +5102,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="H11" s="88">
+      <c r="H11" s="87">
         <f>SUM(B11:G11)</f>
         <v>53.1</v>
       </c>
@@ -5170,7 +5110,7 @@
         <f>A11/(H11+$A$3)</f>
         <v>1.8484288354898334E-2</v>
       </c>
-      <c r="J11" s="88">
+      <c r="J11" s="87">
         <f>$I11*B11</f>
         <v>3.6968576709796669E-2</v>
       </c>
@@ -5199,7 +5139,7 @@
       <c r="A12" s="43">
         <v>2</v>
       </c>
-      <c r="B12" s="88">
+      <c r="B12" s="87">
         <f t="shared" ref="B12:B14" si="3">B$7*(1+J11)</f>
         <v>2.0739371534195934</v>
       </c>
@@ -5223,7 +5163,7 @@
         <f t="shared" ref="G12:G14" si="8">G$7*(1+O11)</f>
         <v>36.552680221811464</v>
       </c>
-      <c r="H12" s="88">
+      <c r="H12" s="87">
         <f t="shared" ref="H12:H14" si="9">SUM(B12:G12)</f>
         <v>70.75268022181146</v>
       </c>
@@ -5231,7 +5171,7 @@
         <f t="shared" ref="I12:I14" si="10">A12/(H12+$A$3)</f>
         <v>2.7873523244251408E-2</v>
       </c>
-      <c r="J12" s="88">
+      <c r="J12" s="87">
         <f t="shared" ref="J12:J14" si="11">$I12*B12</f>
         <v>5.7807935452957634E-2</v>
       </c>
@@ -5260,7 +5200,7 @@
       <c r="A13" s="43">
         <v>3</v>
       </c>
-      <c r="B13" s="88">
+      <c r="B13" s="87">
         <f t="shared" si="3"/>
         <v>2.1156158709059154</v>
       </c>
@@ -5284,7 +5224,7 @@
         <f t="shared" si="8"/>
         <v>50.471299545058756</v>
       </c>
-      <c r="H13" s="88">
+      <c r="H13" s="87">
         <f t="shared" si="9"/>
         <v>90.028575771158884</v>
       </c>
@@ -5292,7 +5232,7 @@
         <f t="shared" si="10"/>
         <v>3.295668392683463E-2</v>
       </c>
-      <c r="J13" s="88">
+      <c r="J13" s="87">
         <f t="shared" si="11"/>
         <v>6.9723683568041234E-2</v>
       </c>
@@ -5321,7 +5261,7 @@
       <c r="A14" s="43">
         <v>4</v>
       </c>
-      <c r="B14" s="88">
+      <c r="B14" s="87">
         <f t="shared" si="3"/>
         <v>2.1394473671360825</v>
       </c>
@@ -5345,7 +5285,7 @@
         <f t="shared" si="8"/>
         <v>66.584166662077351</v>
       </c>
-      <c r="H14" s="88">
+      <c r="H14" s="87">
         <f t="shared" si="9"/>
         <v>110.6171302466829</v>
       </c>
@@ -5353,7 +5293,7 @@
         <f t="shared" si="10"/>
         <v>3.583679307252996E-2</v>
       </c>
-      <c r="J14" s="88">
+      <c r="J14" s="87">
         <f t="shared" si="11"/>
         <v>7.6670932585624824E-2</v>
       </c>
@@ -5382,7 +5322,7 @@
       <c r="A15" s="43">
         <v>5</v>
       </c>
-      <c r="B15" s="88">
+      <c r="B15" s="87">
         <f t="shared" ref="B15:B50" si="17">B$7*(1+J14)</f>
         <v>2.1533418651712495</v>
       </c>
@@ -5406,7 +5346,7 @@
         <f t="shared" ref="G15:G50" si="22">G$7*(1+O14)</f>
         <v>84.654075064392856</v>
       </c>
-      <c r="H15" s="88">
+      <c r="H15" s="87">
         <f t="shared" ref="H15:H50" si="23">SUM(B15:G15)</f>
         <v>132.27766551347278</v>
       </c>
@@ -5414,7 +5354,7 @@
         <f t="shared" ref="I15:I50" si="24">A15/(H15+$A$3)</f>
         <v>3.751566311382127E-2</v>
       </c>
-      <c r="J15" s="88">
+      <c r="J15" s="87">
         <f t="shared" ref="J15:J50" si="25">$I15*B15</f>
         <v>8.0784047982652138E-2</v>
       </c>
@@ -5443,7 +5383,7 @@
       <c r="A16" s="43">
         <v>6</v>
       </c>
-      <c r="B16" s="88">
+      <c r="B16" s="87">
         <f t="shared" si="17"/>
         <v>2.1615680959653041</v>
       </c>
@@ -5467,7 +5407,7 @@
         <f t="shared" si="22"/>
         <v>104.39634403319751</v>
       </c>
-      <c r="H16" s="88">
+      <c r="H16" s="87">
         <f t="shared" si="23"/>
         <v>154.80212029417882</v>
       </c>
@@ -5475,7 +5415,7 @@
         <f t="shared" si="24"/>
         <v>3.8510387334081589E-2</v>
       </c>
-      <c r="J16" s="88">
+      <c r="J16" s="87">
         <f t="shared" si="25"/>
         <v>8.3242824624617101E-2</v>
       </c>
@@ -5504,7 +5444,7 @@
       <c r="A17" s="43">
         <v>7</v>
       </c>
-      <c r="B17" s="88">
+      <c r="B17" s="87">
         <f t="shared" si="17"/>
         <v>2.1664856492492341</v>
       </c>
@@ -5528,7 +5468,7 @@
         <f t="shared" si="22"/>
         <v>125.50859112451182</v>
       </c>
-      <c r="H17" s="88">
+      <c r="H17" s="87">
         <f t="shared" si="23"/>
         <v>178.00564776536658</v>
       </c>
@@ -5536,7 +5476,7 @@
         <f t="shared" si="24"/>
         <v>3.9104911422545276E-2</v>
       </c>
-      <c r="J17" s="88">
+      <c r="J17" s="87">
         <f t="shared" si="25"/>
         <v>8.4720229412106787E-2</v>
       </c>
@@ -5565,7 +5505,7 @@
       <c r="A18" s="43">
         <v>8</v>
       </c>
-      <c r="B18" s="88">
+      <c r="B18" s="87">
         <f t="shared" si="17"/>
         <v>2.1694404588242135</v>
       </c>
@@ -5589,7 +5529,7 @@
         <f t="shared" si="22"/>
         <v>147.70005846731218</v>
       </c>
-      <c r="H18" s="88">
+      <c r="H18" s="87">
         <f t="shared" si="23"/>
         <v>201.72790799018765</v>
       </c>
@@ -5597,7 +5537,7 @@
         <f t="shared" si="24"/>
         <v>3.9461759751337311E-2</v>
       </c>
-      <c r="J18" s="88">
+      <c r="J18" s="87">
         <f t="shared" si="25"/>
         <v>8.5609938180952097E-2</v>
       </c>
@@ -5626,7 +5566,7 @@
       <c r="A19" s="43">
         <v>9</v>
       </c>
-      <c r="B19" s="88">
+      <c r="B19" s="87">
         <f t="shared" si="17"/>
         <v>2.1712198763619042</v>
       </c>
@@ -5650,7 +5590,7 @@
         <f t="shared" si="22"/>
         <v>170.71260556238869</v>
       </c>
-      <c r="H19" s="88">
+      <c r="H19" s="87">
         <f t="shared" si="23"/>
         <v>225.83549166940003</v>
       </c>
@@ -5658,7 +5598,7 @@
         <f t="shared" si="24"/>
         <v>3.9676330779475168E-2</v>
       </c>
-      <c r="J19" s="88">
+      <c r="J19" s="87">
         <f t="shared" si="25"/>
         <v>8.6146038009506085E-2</v>
       </c>
@@ -5687,7 +5627,7 @@
       <c r="A20" s="43">
         <v>10</v>
       </c>
-      <c r="B20" s="88">
+      <c r="B20" s="87">
         <f t="shared" si="17"/>
         <v>2.1722920760190121</v>
       </c>
@@ -5711,7 +5651,7 @@
         <f t="shared" si="22"/>
         <v>194.33124516298514</v>
       </c>
-      <c r="H20" s="88">
+      <c r="H20" s="87">
         <f t="shared" si="23"/>
         <v>250.22210519976286</v>
       </c>
@@ -5719,7 +5659,7 @@
         <f t="shared" si="24"/>
         <v>3.9805414384408398E-2</v>
       </c>
-      <c r="J20" s="88">
+      <c r="J20" s="87">
         <f t="shared" si="25"/>
         <v>8.6468986249903568E-2</v>
       </c>
@@ -5748,7 +5688,7 @@
       <c r="A21" s="43">
         <v>11</v>
       </c>
-      <c r="B21" s="88">
+      <c r="B21" s="87">
         <f t="shared" si="17"/>
         <v>2.172937972499807</v>
       </c>
@@ -5772,7 +5712,7 @@
         <f t="shared" si="22"/>
         <v>218.38589353876711</v>
       </c>
-      <c r="H21" s="88">
+      <c r="H21" s="87">
         <f t="shared" si="23"/>
         <v>274.80631987519297</v>
       </c>
@@ -5780,7 +5720,7 @@
         <f t="shared" si="24"/>
         <v>3.9883059985636612E-2</v>
       </c>
-      <c r="J21" s="88">
+      <c r="J21" s="87">
         <f t="shared" si="25"/>
         <v>8.6663415502277408E-2</v>
       </c>
@@ -5809,7 +5749,7 @@
       <c r="A22" s="43">
         <v>12</v>
       </c>
-      <c r="B22" s="88">
+      <c r="B22" s="87">
         <f t="shared" si="17"/>
         <v>2.1733268310045548</v>
       </c>
@@ -5833,7 +5773,7 @@
         <f t="shared" si="22"/>
         <v>242.74744230058749</v>
       </c>
-      <c r="H22" s="88">
+      <c r="H22" s="87">
         <f t="shared" si="23"/>
         <v>299.52781996768573</v>
       </c>
@@ -5841,7 +5781,7 @@
         <f t="shared" si="24"/>
         <v>3.9929747606362372E-2</v>
       </c>
-      <c r="J22" s="88">
+      <c r="J22" s="87">
         <f t="shared" si="25"/>
         <v>8.6780391828147244E-2</v>
       </c>
@@ -5870,7 +5810,7 @@
       <c r="A23" s="43">
         <v>13</v>
       </c>
-      <c r="B23" s="88">
+      <c r="B23" s="87">
         <f t="shared" si="17"/>
         <v>2.1735607836562947</v>
       </c>
@@ -5894,7 +5834,7 @@
         <f t="shared" si="22"/>
         <v>267.32110257881175</v>
       </c>
-      <c r="H23" s="88">
+      <c r="H23" s="87">
         <f t="shared" si="23"/>
         <v>324.34316816694962</v>
       </c>
@@ -5902,7 +5842,7 @@
         <f t="shared" si="24"/>
         <v>3.995780846803907E-2</v>
       </c>
-      <c r="J23" s="88">
+      <c r="J23" s="87">
         <f t="shared" si="25"/>
         <v>8.6850725486979127E-2</v>
       </c>
@@ -5931,7 +5871,7 @@
       <c r="A24" s="43">
         <v>14</v>
       </c>
-      <c r="B24" s="88">
+      <c r="B24" s="87">
         <f t="shared" si="17"/>
         <v>2.1737014509739581</v>
       </c>
@@ -5955,7 +5895,7 @@
         <f t="shared" si="22"/>
         <v>292.03913540772965</v>
       </c>
-      <c r="H24" s="88">
+      <c r="H24" s="87">
         <f t="shared" si="23"/>
         <v>349.22180149096499</v>
       </c>
@@ -5963,7 +5903,7 @@
         <f t="shared" si="24"/>
         <v>3.9974667311969643E-2</v>
       </c>
-      <c r="J24" s="88">
+      <c r="J24" s="87">
         <f t="shared" si="25"/>
         <v>8.6892992338229669E-2</v>
       </c>
@@ -5987,7 +5927,7 @@
         <f t="shared" si="30"/>
         <v>11.674167279999246</v>
       </c>
-      <c r="Q24" s="77" t="s">
+      <c r="Q24" s="76" t="s">
         <v>58</v>
       </c>
     </row>
@@ -5995,7 +5935,7 @@
       <c r="A25" s="43">
         <v>15</v>
       </c>
-      <c r="B25" s="88">
+      <c r="B25" s="87">
         <f t="shared" si="17"/>
         <v>2.1737859846764591</v>
       </c>
@@ -6019,7 +5959,7 @@
         <f t="shared" si="22"/>
         <v>316.85418199998117</v>
       </c>
-      <c r="H25" s="88">
+      <c r="H25" s="87">
         <f t="shared" si="23"/>
         <v>374.14262312477405</v>
       </c>
@@ -6027,7 +5967,7 @@
         <f t="shared" si="24"/>
         <v>3.9984792650476657E-2</v>
       </c>
-      <c r="J25" s="88">
+      <c r="J25" s="87">
         <f t="shared" si="25"/>
         <v>8.6918381863800451E-2</v>
       </c>
@@ -6051,7 +5991,7 @@
         <f t="shared" si="30"/>
         <v>12.669348767705641</v>
       </c>
-      <c r="Q25" s="78">
+      <c r="Q25" s="77">
         <f>SUM(J50:O50)</f>
         <v>39.960000000043294</v>
       </c>
@@ -6060,7 +6000,7 @@
       <c r="A26" s="43">
         <v>16</v>
       </c>
-      <c r="B26" s="88">
+      <c r="B26" s="87">
         <f t="shared" si="17"/>
         <v>2.1738367637276008</v>
       </c>
@@ -6084,7 +6024,7 @@
         <f t="shared" si="22"/>
         <v>341.73371919264099</v>
       </c>
-      <c r="H26" s="88">
+      <c r="H26" s="87">
         <f t="shared" si="23"/>
         <v>399.09129815854311</v>
       </c>
@@ -6092,7 +6032,7 @@
         <f t="shared" si="24"/>
         <v>3.9990872267508609E-2</v>
       </c>
-      <c r="J26" s="88">
+      <c r="J26" s="87">
         <f t="shared" si="25"/>
         <v>8.6933628348644779E-2</v>
       </c>
@@ -6121,7 +6061,7 @@
       <c r="A27" s="43">
         <v>17</v>
       </c>
-      <c r="B27" s="88">
+      <c r="B27" s="87">
         <f t="shared" si="17"/>
         <v>2.1738672566972896</v>
       </c>
@@ -6145,7 +6085,7 @@
         <f t="shared" si="22"/>
         <v>366.65573784333907</v>
       </c>
-      <c r="H27" s="88">
+      <c r="H27" s="87">
         <f t="shared" si="23"/>
         <v>424.05821226548591</v>
       </c>
@@ -6153,7 +6093,7 @@
         <f t="shared" si="24"/>
         <v>3.9994521948871369E-2</v>
       </c>
-      <c r="J27" s="88">
+      <c r="J27" s="87">
         <f t="shared" si="25"/>
         <v>8.694278171191254E-2</v>
       </c>
@@ -6177,25 +6117,25 @@
         <f t="shared" si="30"/>
         <v>14.66422095485505</v>
       </c>
-      <c r="Q27" s="74" t="s">
+      <c r="Q27" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="R27" s="75" t="s">
+      <c r="R27" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="S27" s="75" t="s">
+      <c r="S27" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="T27" s="75" t="s">
+      <c r="T27" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="U27" s="75" t="s">
+      <c r="U27" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="V27" s="75" t="s">
+      <c r="V27" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="W27" s="76" t="s">
+      <c r="W27" s="75" t="s">
         <v>65</v>
       </c>
     </row>
@@ -6203,7 +6143,7 @@
       <c r="A28" s="43">
         <v>18</v>
       </c>
-      <c r="B28" s="88">
+      <c r="B28" s="87">
         <f t="shared" si="17"/>
         <v>2.1738855634238252</v>
       </c>
@@ -6227,7 +6167,7 @@
         <f t="shared" si="22"/>
         <v>391.60552387137625</v>
       </c>
-      <c r="H28" s="88">
+      <c r="H28" s="87">
         <f t="shared" si="23"/>
         <v>449.03698657261788</v>
       </c>
@@ -6235,7 +6175,7 @@
         <f t="shared" si="24"/>
         <v>3.9996712574857499E-2</v>
       </c>
-      <c r="J28" s="88">
+      <c r="J28" s="87">
         <f t="shared" si="25"/>
         <v>8.694827605089489E-2</v>
       </c>
@@ -6260,27 +6200,27 @@
         <v>15.662933581009932</v>
       </c>
       <c r="Q28" s="64"/>
-      <c r="R28" s="81">
+      <c r="R28" s="80">
         <f t="shared" ref="R28:W28" si="31">B7*$I$50</f>
         <v>7.9999999913425879E-2</v>
       </c>
-      <c r="S28" s="81">
+      <c r="S28" s="80">
         <f t="shared" si="31"/>
         <v>0.39999999956712939</v>
       </c>
-      <c r="T28" s="81">
+      <c r="T28" s="80">
         <f t="shared" si="31"/>
         <v>0.59999999935069415</v>
       </c>
-      <c r="U28" s="81">
+      <c r="U28" s="80">
         <f t="shared" si="31"/>
         <v>3.9999999956712939E-2</v>
       </c>
-      <c r="V28" s="81">
+      <c r="V28" s="80">
         <f t="shared" si="31"/>
         <v>3.9999999956712943E-3</v>
       </c>
-      <c r="W28" s="81">
+      <c r="W28" s="80">
         <f t="shared" si="31"/>
         <v>0.99999999891782343</v>
       </c>
@@ -6289,7 +6229,7 @@
       <c r="A29" s="43">
         <v>19</v>
       </c>
-      <c r="B29" s="88">
+      <c r="B29" s="87">
         <f t="shared" si="17"/>
         <v>2.1738965521017897</v>
       </c>
@@ -6313,7 +6253,7 @@
         <f t="shared" si="22"/>
         <v>416.57333952524829</v>
       </c>
-      <c r="H29" s="88">
+      <c r="H29" s="87">
         <f t="shared" si="23"/>
         <v>474.02342701096927</v>
       </c>
@@ -6321,7 +6261,7 @@
         <f t="shared" si="24"/>
         <v>3.9998027296370059E-2</v>
       </c>
-      <c r="J29" s="88">
+      <c r="J29" s="87">
         <f t="shared" si="25"/>
         <v>8.6951573630452139E-2</v>
       </c>
@@ -6350,7 +6290,7 @@
       <c r="A30" s="43">
         <v>20</v>
       </c>
-      <c r="B30" s="88">
+      <c r="B30" s="87">
         <f t="shared" si="17"/>
         <v>2.1739031472609041</v>
       </c>
@@ -6374,7 +6314,7 @@
         <f t="shared" si="22"/>
         <v>441.55279513177288</v>
       </c>
-      <c r="H30" s="88">
+      <c r="H30" s="87">
         <f t="shared" si="23"/>
         <v>499.01479700633047</v>
       </c>
@@ -6382,7 +6322,7 @@
         <f t="shared" si="24"/>
         <v>3.999881627452475E-2</v>
       </c>
-      <c r="J30" s="88">
+      <c r="J30" s="87">
         <f t="shared" si="25"/>
         <v>8.6953552585900026E-2</v>
       </c>
@@ -6406,25 +6346,25 @@
         <f t="shared" si="30"/>
         <v>17.661589127978651</v>
       </c>
-      <c r="Q30" s="74" t="s">
+      <c r="Q30" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="R30" s="75" t="s">
+      <c r="R30" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="S30" s="75" t="s">
+      <c r="S30" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="T30" s="75" t="s">
+      <c r="T30" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="U30" s="75" t="s">
+      <c r="U30" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="V30" s="75" t="s">
+      <c r="V30" s="74" t="s">
         <v>70</v>
       </c>
-      <c r="W30" s="76" t="s">
+      <c r="W30" s="75" t="s">
         <v>71</v>
       </c>
     </row>
@@ -6432,7 +6372,7 @@
       <c r="A31" s="43">
         <v>21</v>
       </c>
-      <c r="B31" s="88">
+      <c r="B31" s="87">
         <f t="shared" si="17"/>
         <v>2.1739071051718</v>
       </c>
@@ -6456,7 +6396,7 @@
         <f t="shared" si="22"/>
         <v>466.53972819946625</v>
       </c>
-      <c r="H31" s="88">
+      <c r="H31" s="87">
         <f t="shared" si="23"/>
         <v>524.00932256432054</v>
       </c>
@@ -6464,7 +6404,7 @@
         <f t="shared" si="24"/>
         <v>3.9999289721997698E-2</v>
       </c>
-      <c r="J31" s="88">
+      <c r="J31" s="87">
         <f t="shared" si="25"/>
         <v>8.6954740128476149E-2</v>
       </c>
@@ -6489,27 +6429,27 @@
         <v>18.661257755072509</v>
       </c>
       <c r="Q31" s="64"/>
-      <c r="R31" s="80">
+      <c r="R31" s="79">
         <f t="shared" ref="R31:W31" si="32">B3*$I$50</f>
         <v>7.9999999913425879E-2</v>
       </c>
-      <c r="S31" s="80">
+      <c r="S31" s="79">
         <f t="shared" si="32"/>
         <v>0.39999999956712939</v>
       </c>
-      <c r="T31" s="80">
+      <c r="T31" s="79">
         <f t="shared" si="32"/>
         <v>3.9999999956712939E-2</v>
       </c>
-      <c r="U31" s="80">
+      <c r="U31" s="79">
         <f t="shared" si="32"/>
         <v>3.9999999956712943E-3</v>
       </c>
-      <c r="V31" s="80">
+      <c r="V31" s="79">
         <f t="shared" si="32"/>
         <v>3.9999999956712943E-3</v>
       </c>
-      <c r="W31" s="82">
+      <c r="W31" s="81">
         <f t="shared" si="32"/>
         <v>4.9999999945891174E-2</v>
       </c>
@@ -6518,7 +6458,7 @@
       <c r="A32" s="43">
         <v>22</v>
       </c>
-      <c r="B32" s="88">
+      <c r="B32" s="87">
         <f t="shared" si="17"/>
         <v>2.1739094802569525</v>
       </c>
@@ -6542,7 +6482,7 @@
         <f t="shared" si="22"/>
         <v>491.53144387681272</v>
       </c>
-      <c r="H32" s="88">
+      <c r="H32" s="87">
         <f t="shared" si="23"/>
         <v>549.00586009782717</v>
       </c>
@@ -6550,7 +6490,7 @@
         <f t="shared" si="24"/>
         <v>3.9999573815607994E-2</v>
       </c>
-      <c r="J32" s="88">
+      <c r="J32" s="87">
         <f t="shared" si="25"/>
         <v>8.6955452723987983E-2</v>
       </c>
@@ -6579,7 +6519,7 @@
       <c r="A33" s="43">
         <v>23</v>
       </c>
-      <c r="B33" s="88">
+      <c r="B33" s="87">
         <f t="shared" si="17"/>
         <v>2.1739109054479759</v>
       </c>
@@ -6603,7 +6543,7 @@
         <f t="shared" si="22"/>
         <v>516.52620680107373</v>
       </c>
-      <c r="H33" s="88">
+      <c r="H33" s="87">
         <f t="shared" si="23"/>
         <v>574.00367596763601</v>
       </c>
@@ -6611,7 +6551,7 @@
         <f t="shared" si="24"/>
         <v>3.999974428214708E-2</v>
       </c>
-      <c r="J33" s="88">
+      <c r="J33" s="87">
         <f t="shared" si="25"/>
         <v>8.6955880310089856E-2</v>
       </c>
@@ -6635,25 +6575,25 @@
         <f t="shared" si="30"/>
         <v>20.66091618707037</v>
       </c>
-      <c r="Q33" s="74" t="s">
+      <c r="Q33" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="R33" s="75" t="s">
+      <c r="R33" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="S33" s="75" t="s">
+      <c r="S33" s="74" t="s">
         <v>74</v>
       </c>
-      <c r="T33" s="75" t="s">
+      <c r="T33" s="74" t="s">
         <v>75</v>
       </c>
-      <c r="U33" s="75" t="s">
+      <c r="U33" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="V33" s="75" t="s">
+      <c r="V33" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="W33" s="76" t="s">
+      <c r="W33" s="75" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6661,7 +6601,7 @@
       <c r="A34" s="43">
         <v>24</v>
       </c>
-      <c r="B34" s="88">
+      <c r="B34" s="87">
         <f t="shared" si="17"/>
         <v>2.1739117606201797</v>
       </c>
@@ -6685,7 +6625,7 @@
         <f t="shared" si="22"/>
         <v>541.52290467675925</v>
       </c>
-      <c r="H34" s="88">
+      <c r="H34" s="87">
         <f t="shared" si="23"/>
         <v>599.00230151379094</v>
       </c>
@@ -6693,7 +6633,7 @@
         <f t="shared" si="24"/>
         <v>3.9999846566335817E-2</v>
       </c>
-      <c r="J34" s="88">
+      <c r="J34" s="87">
         <f t="shared" si="25"/>
         <v>8.6956136873560144E-2</v>
       </c>
@@ -6718,27 +6658,27 @@
         <v>21.660833099226867</v>
       </c>
       <c r="Q34" s="64"/>
-      <c r="R34" s="79">
+      <c r="R34" s="78">
         <f t="shared" ref="R34:W34" si="33">J50-R28</f>
         <v>6.9565217171249777E-3</v>
       </c>
-      <c r="S34" s="79">
+      <c r="S34" s="78">
         <f t="shared" si="33"/>
         <v>0.26666666493518609</v>
       </c>
-      <c r="T34" s="79">
+      <c r="T34" s="78">
         <f t="shared" si="33"/>
         <v>0.89999993782675602</v>
       </c>
-      <c r="U34" s="79">
+      <c r="U34" s="78">
         <f t="shared" si="33"/>
         <v>1.6666666616422729E-3</v>
       </c>
-      <c r="V34" s="79">
+      <c r="V34" s="78">
         <f t="shared" si="33"/>
         <v>1.6064256981558958E-5</v>
       </c>
-      <c r="W34" s="87">
+      <c r="W34" s="86">
         <f t="shared" si="33"/>
         <v>36.660694146944145</v>
       </c>
@@ -6747,7 +6687,7 @@
       <c r="A35" s="43">
         <v>25</v>
       </c>
-      <c r="B35" s="88">
+      <c r="B35" s="87">
         <f t="shared" si="17"/>
         <v>2.1739122737471201</v>
       </c>
@@ -6771,7 +6711,7 @@
         <f t="shared" si="22"/>
         <v>566.52082748067164</v>
       </c>
-      <c r="H35" s="88">
+      <c r="H35" s="87">
         <f t="shared" si="23"/>
         <v>624.00143846273272</v>
       </c>
@@ -6779,7 +6719,7 @@
         <f t="shared" si="24"/>
         <v>3.9999907938596986E-2</v>
       </c>
-      <c r="J35" s="88">
+      <c r="J35" s="87">
         <f t="shared" si="25"/>
         <v>8.6956290816470855E-2</v>
       </c>
@@ -6808,7 +6748,7 @@
       <c r="A36" s="43">
         <v>26</v>
       </c>
-      <c r="B36" s="88">
+      <c r="B36" s="87">
         <f t="shared" si="17"/>
         <v>2.1739125816329419</v>
       </c>
@@ -6832,7 +6772,7 @@
         <f t="shared" si="22"/>
         <v>591.51952361311623</v>
       </c>
-      <c r="H36" s="88">
+      <c r="H36" s="87">
         <f t="shared" si="23"/>
         <v>649.0008976078858</v>
       </c>
@@ -6840,7 +6780,7 @@
         <f t="shared" si="24"/>
         <v>3.9999944762667924E-2</v>
       </c>
-      <c r="J36" s="88">
+      <c r="J36" s="87">
         <f t="shared" si="25"/>
         <v>8.6956383184186498E-2</v>
       </c>
@@ -6864,25 +6804,25 @@
         <f t="shared" si="30"/>
         <v>23.660748270564294</v>
       </c>
-      <c r="Q36" s="74" t="s">
+      <c r="Q36" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="R36" s="75" t="s">
+      <c r="R36" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="S36" s="75" t="s">
+      <c r="S36" s="74" t="s">
         <v>80</v>
       </c>
-      <c r="T36" s="75" t="s">
+      <c r="T36" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="U36" s="75" t="s">
+      <c r="U36" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="V36" s="75" t="s">
+      <c r="V36" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="W36" s="76" t="s">
+      <c r="W36" s="75" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6890,7 +6830,7 @@
       <c r="A37" s="43">
         <v>27</v>
       </c>
-      <c r="B37" s="88">
+      <c r="B37" s="87">
         <f t="shared" si="17"/>
         <v>2.1739127663683728</v>
       </c>
@@ -6914,7 +6854,7 @@
         <f t="shared" si="22"/>
         <v>616.51870676410738</v>
       </c>
-      <c r="H37" s="88">
+      <c r="H37" s="87">
         <f t="shared" si="23"/>
         <v>674.00055928181155</v>
       </c>
@@ -6922,7 +6862,7 @@
         <f t="shared" si="24"/>
         <v>3.9999966857401592E-2</v>
       </c>
-      <c r="J37" s="88">
+      <c r="J37" s="87">
         <f t="shared" si="25"/>
         <v>8.6956438605617123E-2</v>
       </c>
@@ -6976,7 +6916,7 @@
       <c r="A38" s="43">
         <v>28</v>
       </c>
-      <c r="B38" s="88">
+      <c r="B38" s="87">
         <f t="shared" si="17"/>
         <v>2.1739128772112344</v>
       </c>
@@ -7000,7 +6940,7 @@
         <f t="shared" si="22"/>
         <v>641.51819593830965</v>
       </c>
-      <c r="H38" s="88">
+      <c r="H38" s="87">
         <f t="shared" si="23"/>
         <v>699.00034799886964</v>
       </c>
@@ -7008,7 +6948,7 @@
         <f t="shared" si="24"/>
         <v>3.9999980114360192E-2</v>
       </c>
-      <c r="J38" s="88">
+      <c r="J38" s="87">
         <f t="shared" si="25"/>
         <v>8.6956471858800927E-2</v>
       </c>
@@ -7037,7 +6977,7 @@
       <c r="A39" s="43">
         <v>29</v>
       </c>
-      <c r="B39" s="88">
+      <c r="B39" s="87">
         <f t="shared" si="17"/>
         <v>2.1739129437176019</v>
       </c>
@@ -7061,7 +7001,7 @@
         <f t="shared" si="22"/>
         <v>666.51787701331523</v>
       </c>
-      <c r="H39" s="88">
+      <c r="H39" s="87">
         <f t="shared" si="23"/>
         <v>724.00021625699014</v>
       </c>
@@ -7069,7 +7009,7 @@
         <f t="shared" si="24"/>
         <v>3.999998806858341E-2</v>
       </c>
-      <c r="J39" s="88">
+      <c r="J39" s="87">
         <f t="shared" si="25"/>
         <v>8.6956491810843112E-2</v>
       </c>
@@ -7093,25 +7033,25 @@
         <f t="shared" si="30"/>
         <v>26.660707128030154</v>
       </c>
-      <c r="Q39" s="74" t="s">
+      <c r="Q39" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="R39" s="75" t="s">
+      <c r="R39" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="S39" s="75" t="s">
+      <c r="S39" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="T39" s="75" t="s">
+      <c r="T39" s="74" t="s">
         <v>90</v>
       </c>
-      <c r="U39" s="75" t="s">
+      <c r="U39" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="V39" s="75" t="s">
+      <c r="V39" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="W39" s="76" t="s">
+      <c r="W39" s="75" t="s">
         <v>93</v>
       </c>
     </row>
@@ -7119,7 +7059,7 @@
       <c r="A40" s="43">
         <v>30</v>
       </c>
-      <c r="B40" s="88">
+      <c r="B40" s="87">
         <f t="shared" si="17"/>
         <v>2.1739129836216864</v>
       </c>
@@ -7143,7 +7083,7 @@
         <f t="shared" si="22"/>
         <v>691.51767820075383</v>
       </c>
-      <c r="H40" s="88">
+      <c r="H40" s="87">
         <f t="shared" si="23"/>
         <v>749.00013422870836</v>
       </c>
@@ -7151,7 +7091,7 @@
         <f t="shared" si="24"/>
         <v>3.9999992841136832E-2</v>
       </c>
-      <c r="J40" s="88">
+      <c r="J40" s="87">
         <f t="shared" si="25"/>
         <v>8.6956503782121872E-2</v>
       </c>
@@ -7205,7 +7145,7 @@
       <c r="A41" s="43">
         <v>31</v>
       </c>
-      <c r="B41" s="88">
+      <c r="B41" s="87">
         <f t="shared" si="17"/>
         <v>2.1739130075642437</v>
       </c>
@@ -7229,7 +7169,7 @@
         <f t="shared" si="22"/>
         <v>716.51755443874288</v>
       </c>
-      <c r="H41" s="88">
+      <c r="H41" s="87">
         <f t="shared" si="23"/>
         <v>774.00008322189672</v>
       </c>
@@ -7237,7 +7177,7 @@
         <f t="shared" si="24"/>
         <v>3.9999995704676758E-2</v>
       </c>
-      <c r="J41" s="88">
+      <c r="J41" s="87">
         <f t="shared" si="25"/>
         <v>8.695651096491068E-2</v>
       </c>
@@ -7266,7 +7206,7 @@
       <c r="A42" s="43">
         <v>32</v>
       </c>
-      <c r="B42" s="88">
+      <c r="B42" s="87">
         <f t="shared" si="17"/>
         <v>2.1739130219298213</v>
       </c>
@@ -7290,7 +7230,7 @@
         <f t="shared" si="22"/>
         <v>741.51747749688025</v>
       </c>
-      <c r="H42" s="88">
+      <c r="H42" s="87">
         <f t="shared" si="23"/>
         <v>799.00005154392534</v>
       </c>
@@ -7298,7 +7238,7 @@
         <f t="shared" si="24"/>
         <v>3.9999997422803898E-2</v>
       </c>
-      <c r="J42" s="88">
+      <c r="J42" s="87">
         <f t="shared" si="25"/>
         <v>8.695651527459268E-2</v>
       </c>
@@ -7327,7 +7267,7 @@
       <c r="A43" s="43">
         <v>33</v>
       </c>
-      <c r="B43" s="88">
+      <c r="B43" s="87">
         <f t="shared" si="17"/>
         <v>2.1739130305491852</v>
       </c>
@@ -7351,7 +7291,7 @@
         <f t="shared" si="22"/>
         <v>766.51742972098145</v>
       </c>
-      <c r="H43" s="88">
+      <c r="H43" s="87">
         <f t="shared" si="23"/>
         <v>824.00003189282086</v>
       </c>
@@ -7359,7 +7299,7 @@
         <f t="shared" si="24"/>
         <v>3.9999998453681476E-2</v>
       </c>
-      <c r="J43" s="88">
+      <c r="J43" s="87">
         <f t="shared" si="25"/>
         <v>8.6956517860405425E-2</v>
       </c>
@@ -7388,7 +7328,7 @@
       <c r="A44" s="43">
         <v>34</v>
       </c>
-      <c r="B44" s="88">
+      <c r="B44" s="87">
         <f t="shared" si="17"/>
         <v>2.173913035720811</v>
       </c>
@@ -7412,7 +7352,7 @@
         <f t="shared" si="22"/>
         <v>791.51740008897889</v>
       </c>
-      <c r="H44" s="88">
+      <c r="H44" s="87">
         <f t="shared" si="23"/>
         <v>849.00001971556912</v>
       </c>
@@ -7420,7 +7360,7 @@
         <f t="shared" si="24"/>
         <v>3.9999999072208532E-2</v>
       </c>
-      <c r="J44" s="88">
+      <c r="J44" s="87">
         <f t="shared" si="25"/>
         <v>8.6956519411894473E-2</v>
       </c>
@@ -7449,7 +7389,7 @@
       <c r="A45" s="43">
         <v>35</v>
       </c>
-      <c r="B45" s="88">
+      <c r="B45" s="87">
         <f t="shared" si="17"/>
         <v>2.1739130388237888</v>
       </c>
@@ -7473,7 +7413,7 @@
         <f t="shared" si="22"/>
         <v>816.51738172990167</v>
       </c>
-      <c r="H45" s="88">
+      <c r="H45" s="87">
         <f t="shared" si="23"/>
         <v>874.00001217726629</v>
       </c>
@@ -7481,7 +7421,7 @@
         <f t="shared" si="24"/>
         <v>3.9999999443324975E-2</v>
       </c>
-      <c r="J45" s="88">
+      <c r="J45" s="87">
         <f t="shared" si="25"/>
         <v>8.695652034278846E-2</v>
       </c>
@@ -7510,7 +7450,7 @@
       <c r="A46" s="43">
         <v>36</v>
       </c>
-      <c r="B46" s="88">
+      <c r="B46" s="87">
         <f t="shared" si="17"/>
         <v>2.1739130406855769</v>
       </c>
@@ -7534,7 +7474,7 @@
         <f t="shared" si="22"/>
         <v>841.51737036653083</v>
       </c>
-      <c r="H46" s="88">
+      <c r="H46" s="87">
         <f t="shared" si="23"/>
         <v>899.00000751511413</v>
       </c>
@@ -7542,7 +7482,7 @@
         <f t="shared" si="24"/>
         <v>3.9999999665994927E-2</v>
       </c>
-      <c r="J46" s="88">
+      <c r="J46" s="87">
         <f t="shared" si="25"/>
         <v>8.6956520901325093E-2</v>
       </c>
@@ -7571,7 +7511,7 @@
       <c r="A47" s="43">
         <v>37</v>
       </c>
-      <c r="B47" s="88">
+      <c r="B47" s="87">
         <f t="shared" si="17"/>
         <v>2.17391304180265</v>
       </c>
@@ -7595,7 +7535,7 @@
         <f t="shared" si="22"/>
         <v>866.51736333975396</v>
       </c>
-      <c r="H47" s="88">
+      <c r="H47" s="87">
         <f t="shared" si="23"/>
         <v>924.0000046343207</v>
       </c>
@@ -7603,7 +7543,7 @@
         <f t="shared" si="24"/>
         <v>3.9999999799596946E-2</v>
       </c>
-      <c r="J47" s="88">
+      <c r="J47" s="87">
         <f t="shared" si="25"/>
         <v>8.695652123644719E-2</v>
       </c>
@@ -7632,7 +7572,7 @@
       <c r="A48" s="43">
         <v>38</v>
       </c>
-      <c r="B48" s="88">
+      <c r="B48" s="87">
         <f t="shared" si="17"/>
         <v>2.1739130424728943</v>
       </c>
@@ -7656,7 +7596,7 @@
         <f t="shared" si="22"/>
         <v>891.51735899843572</v>
       </c>
-      <c r="H48" s="88">
+      <c r="H48" s="87">
         <f t="shared" si="23"/>
         <v>949.00000285574379</v>
       </c>
@@ -7664,7 +7604,7 @@
         <f t="shared" si="24"/>
         <v>3.9999999879758157E-2</v>
       </c>
-      <c r="J48" s="88">
+      <c r="J48" s="87">
         <f t="shared" si="25"/>
         <v>8.6956521437520459E-2</v>
       </c>
@@ -7693,7 +7633,7 @@
       <c r="A49" s="43">
         <v>39</v>
       </c>
-      <c r="B49" s="88">
+      <c r="B49" s="87">
         <f t="shared" si="17"/>
         <v>2.1739130428750411</v>
       </c>
@@ -7717,7 +7657,7 @@
         <f t="shared" si="22"/>
         <v>916.5173563184934</v>
       </c>
-      <c r="H49" s="88">
+      <c r="H49" s="87">
         <f t="shared" si="23"/>
         <v>974.00000175853711</v>
       </c>
@@ -7725,7 +7665,7 @@
         <f t="shared" si="24"/>
         <v>3.9999999927854885E-2</v>
       </c>
-      <c r="J49" s="88">
+      <c r="J49" s="87">
         <f t="shared" si="25"/>
         <v>8.695652155816444E-2</v>
       </c>
@@ -7751,10 +7691,10 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="90">
+      <c r="A50" s="89">
         <v>40</v>
       </c>
-      <c r="B50" s="89">
+      <c r="B50" s="88">
         <f t="shared" si="17"/>
         <v>2.1739130431163289</v>
       </c>
@@ -7774,19 +7714,19 @@
         <f t="shared" si="21"/>
         <v>0.1004016064249736</v>
       </c>
-      <c r="G50" s="91">
+      <c r="G50" s="90">
         <f t="shared" si="22"/>
         <v>941.5173546654371</v>
       </c>
-      <c r="H50" s="89">
+      <c r="H50" s="88">
         <f t="shared" si="23"/>
         <v>999.0000010821766</v>
       </c>
-      <c r="I50" s="92">
+      <c r="I50" s="91">
         <f t="shared" si="24"/>
         <v>3.9999999956712939E-2</v>
       </c>
-      <c r="J50" s="89">
+      <c r="J50" s="88">
         <f t="shared" si="25"/>
         <v>8.6956521630550856E-2</v>
       </c>
@@ -7806,7 +7746,7 @@
         <f t="shared" si="29"/>
         <v>4.0160642526528532E-3</v>
       </c>
-      <c r="O50" s="91">
+      <c r="O50" s="90">
         <f t="shared" si="30"/>
         <v>37.660694145861967</v>
       </c>
@@ -7958,7 +7898,7 @@
   <dimension ref="A1:X61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+      <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7983,22 +7923,22 @@
       <c r="A1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="114" t="s">
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="115"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="121"/>
       <c r="N1" s="53" t="s">
         <v>17</v>
       </c>
@@ -8066,13 +8006,13 @@
       <c r="F3" s="57">
         <v>0.1</v>
       </c>
-      <c r="G3" s="93">
+      <c r="G3" s="92">
         <v>1.25</v>
       </c>
       <c r="H3" s="58">
         <v>1</v>
       </c>
-      <c r="I3" s="93">
+      <c r="I3" s="92">
         <v>1</v>
       </c>
       <c r="J3" s="56">
@@ -8143,11 +8083,11 @@
         <v>25</v>
       </c>
       <c r="H7" s="43"/>
-      <c r="Q7" s="125" t="s">
+      <c r="Q7" s="103" t="s">
         <v>103</v>
       </c>
-      <c r="R7" s="126">
-        <v>0.01</v>
+      <c r="R7" s="104">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -8274,59 +8214,59 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="B11" s="83">
+      <c r="B11" s="82">
         <f>B$7*(1+J10*($N$3-1)/$N$3)</f>
         <v>15</v>
       </c>
-      <c r="C11" s="83">
+      <c r="C11" s="82">
         <f t="shared" ref="C11:G11" si="2">C$7*(1+K10*($N$3-1)/$N$3)</f>
         <v>75</v>
       </c>
-      <c r="D11" s="83">
+      <c r="D11" s="82">
         <f t="shared" si="2"/>
         <v>112.5</v>
       </c>
-      <c r="E11" s="83">
+      <c r="E11" s="82">
         <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
-      <c r="F11" s="83">
+      <c r="F11" s="82">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="G11" s="83">
+      <c r="G11" s="82">
         <f t="shared" si="2"/>
         <v>187.5</v>
       </c>
-      <c r="H11" s="83">
+      <c r="H11" s="82">
         <f>SUM(B11:G11)</f>
         <v>398.25</v>
       </c>
-      <c r="I11" s="84">
+      <c r="I11" s="83">
         <f>$N$3/(H11+$A$3)</f>
         <v>0.10018785222291797</v>
       </c>
-      <c r="J11" s="83">
+      <c r="J11" s="82">
         <f>$I11*B11</f>
         <v>1.5028177833437695</v>
       </c>
-      <c r="K11" s="83">
+      <c r="K11" s="82">
         <f t="shared" ref="K11:O11" si="3">$I11*C11</f>
         <v>7.5140889167188476</v>
       </c>
-      <c r="L11" s="83">
+      <c r="L11" s="82">
         <f t="shared" si="3"/>
         <v>11.271133375078271</v>
       </c>
-      <c r="M11" s="83">
+      <c r="M11" s="82">
         <f t="shared" si="3"/>
         <v>0.75140889167188474</v>
       </c>
-      <c r="N11" s="83">
+      <c r="N11" s="82">
         <f t="shared" si="3"/>
         <v>7.5140889167188474E-2</v>
       </c>
-      <c r="O11" s="83">
+      <c r="O11" s="82">
         <f t="shared" si="3"/>
         <v>18.785222291797119</v>
       </c>
@@ -8359,59 +8299,59 @@
       <c r="A12">
         <v>2</v>
       </c>
-      <c r="B12" s="83">
+      <c r="B12" s="82">
         <f t="shared" ref="B12:B20" si="4">B$7*(1+J11*($N$3-1)/$N$3)</f>
         <v>4.9304946775203504</v>
       </c>
-      <c r="C12" s="83">
+      <c r="C12" s="82">
         <f t="shared" ref="C12:C20" si="5">C$7*(1+K11*($N$3-1)/$N$3)</f>
         <v>83.262366938008768</v>
       </c>
-      <c r="D12" s="83">
+      <c r="D12" s="82">
         <f t="shared" ref="D12:D20" si="6">D$7*(1+L11*($N$3-1)/$N$3)</f>
         <v>179.84032561051973</v>
       </c>
-      <c r="E12" s="83">
+      <c r="E12" s="82">
         <f t="shared" ref="E12:E20" si="7">E$7*(1+M11*($N$3-1)/$N$3)</f>
         <v>1.7326236693800876</v>
       </c>
-      <c r="F12" s="83">
+      <c r="F12" s="82">
         <f t="shared" ref="F12:F20" si="8">F$7*(1+N11*($N$3-1)/$N$3)</f>
         <v>0.10732623669380088</v>
       </c>
-      <c r="G12" s="83">
+      <c r="G12" s="82">
         <f t="shared" ref="G12:G20" si="9">G$7*(1+O11*($N$3-1)/$N$3)</f>
         <v>482.88979336255477</v>
       </c>
-      <c r="H12" s="83">
+      <c r="H12" s="82">
         <f t="shared" ref="H12:H20" si="10">SUM(B12:G12)</f>
         <v>752.76293049467745</v>
       </c>
-      <c r="I12" s="84">
+      <c r="I12" s="83">
         <f t="shared" ref="I12:I20" si="11">$N$3/(H12+$A$3)</f>
         <v>5.3067083006786912E-2</v>
       </c>
-      <c r="J12" s="83">
+      <c r="J12" s="82">
         <f t="shared" ref="J12:J20" si="12">$I12*B12</f>
         <v>0.26164697031649353</v>
       </c>
-      <c r="K12" s="83">
+      <c r="K12" s="82">
         <f t="shared" ref="K12:K20" si="13">$I12*C12</f>
         <v>4.4184909376408612</v>
       </c>
-      <c r="L12" s="83">
+      <c r="L12" s="82">
         <f t="shared" ref="L12:L20" si="14">$I12*D12</f>
         <v>9.5436014871410357</v>
       </c>
-      <c r="M12" s="83">
+      <c r="M12" s="82">
         <f t="shared" ref="M12:M20" si="15">$I12*E12</f>
         <v>9.1945284082516829E-2</v>
       </c>
-      <c r="N12" s="83">
+      <c r="N12" s="82">
         <f t="shared" ref="N12:N20" si="16">$I12*F12</f>
         <v>5.6954903114359908E-3</v>
       </c>
-      <c r="O12" s="83">
+      <c r="O12" s="82">
         <f t="shared" ref="O12:O20" si="17">$I12*G12</f>
         <v>25.625552747500873</v>
       </c>
@@ -8444,59 +8384,59 @@
       <c r="A13">
         <v>3</v>
       </c>
-      <c r="B13" s="83">
+      <c r="B13" s="82">
         <f t="shared" si="4"/>
         <v>2.5102115921171624</v>
       </c>
-      <c r="C13" s="83">
+      <c r="C13" s="82">
         <f t="shared" si="5"/>
         <v>53.080286641998399</v>
       </c>
-      <c r="D13" s="83">
+      <c r="D13" s="82">
         <f t="shared" si="6"/>
         <v>154.57517174943766</v>
       </c>
-      <c r="E13" s="83">
+      <c r="E13" s="82">
         <f t="shared" si="7"/>
         <v>1.089646651980454</v>
       </c>
-      <c r="F13" s="83">
+      <c r="F13" s="82">
         <f t="shared" si="8"/>
         <v>0.10055531030536502</v>
       </c>
-      <c r="G13" s="83">
+      <c r="G13" s="82">
         <f t="shared" si="9"/>
         <v>649.62284822033371</v>
       </c>
-      <c r="H13" s="83">
+      <c r="H13" s="82">
         <f t="shared" si="10"/>
         <v>860.97872016617271</v>
       </c>
-      <c r="I13" s="84">
+      <c r="I13" s="83">
         <f t="shared" si="11"/>
         <v>4.6404857874320589E-2</v>
       </c>
-      <c r="J13" s="83">
+      <c r="J13" s="82">
         <f t="shared" si="12"/>
         <v>0.11648601216666893</v>
       </c>
-      <c r="K13" s="83">
+      <c r="K13" s="82">
         <f t="shared" si="13"/>
         <v>2.4631831575501333</v>
       </c>
-      <c r="L13" s="83">
+      <c r="L13" s="82">
         <f t="shared" si="14"/>
         <v>7.1730388759313497</v>
       </c>
-      <c r="M13" s="83">
+      <c r="M13" s="82">
         <f t="shared" si="15"/>
         <v>5.0564898018382237E-2</v>
       </c>
-      <c r="N13" s="83">
+      <c r="N13" s="82">
         <f t="shared" si="16"/>
         <v>4.666254883228668E-3</v>
       </c>
-      <c r="O13" s="83">
+      <c r="O13" s="82">
         <f t="shared" si="17"/>
         <v>30.145655943575921</v>
       </c>
@@ -8529,59 +8469,59 @@
       <c r="A14">
         <v>4</v>
       </c>
-      <c r="B14" s="83">
+      <c r="B14" s="82">
         <f t="shared" si="4"/>
         <v>2.2271477237250044</v>
       </c>
-      <c r="C14" s="83">
+      <c r="C14" s="82">
         <f t="shared" si="5"/>
         <v>34.016035786113797</v>
       </c>
-      <c r="D14" s="83">
+      <c r="D14" s="82">
         <f t="shared" si="6"/>
         <v>119.90569356049599</v>
       </c>
-      <c r="E14" s="83">
+      <c r="E14" s="82">
         <f t="shared" si="7"/>
         <v>1.0493007755679227</v>
       </c>
-      <c r="F14" s="83">
+      <c r="F14" s="82">
         <f t="shared" si="8"/>
         <v>0.1004549598511148</v>
       </c>
-      <c r="G14" s="83">
+      <c r="G14" s="82">
         <f t="shared" si="9"/>
         <v>759.80036362466308</v>
       </c>
-      <c r="H14" s="83">
+      <c r="H14" s="82">
         <f t="shared" si="10"/>
         <v>917.09899643041695</v>
       </c>
-      <c r="I14" s="84">
+      <c r="I14" s="83">
         <f t="shared" si="11"/>
         <v>4.356828637817993E-2</v>
       </c>
-      <c r="J14" s="83">
+      <c r="J14" s="82">
         <f t="shared" si="12"/>
         <v>9.7033009833762549E-2</v>
       </c>
-      <c r="K14" s="83">
+      <c r="K14" s="82">
         <f t="shared" si="13"/>
         <v>1.4820203885798227</v>
       </c>
-      <c r="L14" s="83">
+      <c r="L14" s="82">
         <f t="shared" si="14"/>
         <v>5.2240855954179741</v>
       </c>
-      <c r="M14" s="83">
+      <c r="M14" s="82">
         <f t="shared" si="15"/>
         <v>4.5716236686789563E-2</v>
       </c>
-      <c r="N14" s="83">
+      <c r="N14" s="82">
         <f t="shared" si="16"/>
         <v>4.3766504589019366E-3</v>
       </c>
-      <c r="O14" s="83">
+      <c r="O14" s="82">
         <f t="shared" si="17"/>
         <v>33.103199832644563</v>
       </c>
@@ -8597,7 +8537,7 @@
         <f>ABS(Tabella13[[#This Row],[N3]]-L13)</f>
         <v>1.9489532805133756</v>
       </c>
-      <c r="S14" s="124">
+      <c r="S14" s="102">
         <f>ABS(Tabella13[[#This Row],[N4]]-M13)</f>
         <v>4.8486613315926741E-3</v>
       </c>
@@ -8614,63 +8554,63 @@
       <c r="A15">
         <v>5</v>
       </c>
-      <c r="B15" s="83">
+      <c r="B15" s="82">
         <f t="shared" si="4"/>
         <v>2.1892143691758368</v>
       </c>
-      <c r="C15" s="83">
+      <c r="C15" s="82">
         <f t="shared" si="5"/>
         <v>24.449698788653272</v>
       </c>
-      <c r="D15" s="83">
+      <c r="D15" s="82">
         <f t="shared" si="6"/>
         <v>91.402251832987872</v>
       </c>
-      <c r="E15" s="83">
+      <c r="E15" s="82">
         <f t="shared" si="7"/>
         <v>1.0445733307696199</v>
       </c>
-      <c r="F15" s="83">
+      <c r="F15" s="82">
         <f t="shared" si="8"/>
         <v>0.10042672341974296</v>
       </c>
-      <c r="G15" s="83">
+      <c r="G15" s="82">
         <f t="shared" si="9"/>
         <v>831.89049592071137</v>
       </c>
-      <c r="H15" s="83">
+      <c r="H15" s="82">
         <f t="shared" si="10"/>
         <v>951.07666096571768</v>
       </c>
-      <c r="I15" s="84">
+      <c r="I15" s="83">
         <f t="shared" si="11"/>
         <v>4.2013423540313337E-2</v>
       </c>
-      <c r="J15" s="83">
+      <c r="J15" s="82">
         <f t="shared" si="12"/>
         <v>9.1976390512724313E-2</v>
       </c>
-      <c r="K15" s="83">
+      <c r="K15" s="82">
         <f t="shared" si="13"/>
         <v>1.0272155506407759</v>
       </c>
-      <c r="L15" s="83">
+      <c r="L15" s="82">
         <f t="shared" si="14"/>
         <v>3.8401215187977007</v>
       </c>
-      <c r="M15" s="83">
+      <c r="M15" s="82">
         <f t="shared" si="15"/>
         <v>4.3886101764539859E-2</v>
       </c>
-      <c r="N15" s="83">
+      <c r="N15" s="82">
         <f t="shared" si="16"/>
         <v>4.2192704657995654E-3</v>
       </c>
-      <c r="O15" s="83">
+      <c r="O15" s="82">
         <f t="shared" si="17"/>
         <v>34.950567744278153</v>
       </c>
-      <c r="P15" s="124">
+      <c r="P15" s="102">
         <f>ABS(Tabella13[[#This Row],[N1]]-J14)</f>
         <v>5.056619321038236E-3</v>
       </c>
@@ -8682,7 +8622,7 @@
         <f>ABS(Tabella13[[#This Row],[N3]]-L14)</f>
         <v>1.3839640766202734</v>
       </c>
-      <c r="S15" s="124">
+      <c r="S15" s="102">
         <f>ABS(Tabella13[[#This Row],[N4]]-M14)</f>
         <v>1.8301349222497043E-3</v>
       </c>
@@ -8699,63 +8639,63 @@
       <c r="A16">
         <v>6</v>
       </c>
-      <c r="B16" s="83">
+      <c r="B16" s="82">
         <f t="shared" si="4"/>
         <v>2.1793539614998125</v>
       </c>
-      <c r="C16" s="83">
+      <c r="C16" s="82">
         <f t="shared" si="5"/>
         <v>20.015351618747562</v>
       </c>
-      <c r="D16" s="83">
+      <c r="D16" s="82">
         <f t="shared" si="6"/>
         <v>71.161777212416382</v>
       </c>
-      <c r="E16" s="83">
+      <c r="E16" s="82">
         <f t="shared" si="7"/>
         <v>1.0427889492204263</v>
       </c>
-      <c r="F16" s="83">
+      <c r="F16" s="82">
         <f t="shared" si="8"/>
         <v>0.10041137887041547</v>
       </c>
-      <c r="G16" s="83">
+      <c r="G16" s="82">
         <f t="shared" si="9"/>
         <v>876.92008876678005</v>
       </c>
-      <c r="H16" s="83">
+      <c r="H16" s="82">
         <f t="shared" si="10"/>
         <v>971.41977188753469</v>
       </c>
-      <c r="I16" s="84">
+      <c r="I16" s="83">
         <f t="shared" si="11"/>
         <v>4.1134498861903235E-2</v>
       </c>
-      <c r="J16" s="83">
+      <c r="J16" s="82">
         <f t="shared" si="12"/>
         <v>8.964663304899835E-2</v>
       </c>
-      <c r="K16" s="83">
+      <c r="K16" s="82">
         <f t="shared" si="13"/>
         <v>0.82332145838196469</v>
       </c>
-      <c r="L16" s="83">
+      <c r="L16" s="82">
         <f t="shared" si="14"/>
         <v>2.9272040437551534</v>
       </c>
-      <c r="M16" s="83">
+      <c r="M16" s="82">
         <f t="shared" si="15"/>
         <v>4.2894600844912895E-2</v>
       </c>
-      <c r="N16" s="83">
+      <c r="N16" s="82">
         <f t="shared" si="16"/>
         <v>4.1303717498672394E-3</v>
       </c>
-      <c r="O16" s="83">
+      <c r="O16" s="82">
         <f t="shared" si="17"/>
         <v>36.0716683933572</v>
       </c>
-      <c r="P16" s="124">
+      <c r="P16" s="102">
         <f>ABS(Tabella13[[#This Row],[N1]]-J15)</f>
         <v>2.3297574637259622E-3</v>
       </c>
@@ -8767,7 +8707,7 @@
         <f>ABS(Tabella13[[#This Row],[N3]]-L15)</f>
         <v>0.91291747504254728</v>
       </c>
-      <c r="S16" s="124">
+      <c r="S16" s="102">
         <f>ABS(Tabella13[[#This Row],[N4]]-M15)</f>
         <v>9.9150091962696418E-4</v>
       </c>
@@ -8784,63 +8724,63 @@
       <c r="A17">
         <v>7</v>
       </c>
-      <c r="B17" s="83">
+      <c r="B17" s="82">
         <f t="shared" si="4"/>
         <v>2.1748109344455466</v>
       </c>
-      <c r="C17" s="83">
+      <c r="C17" s="82">
         <f t="shared" si="5"/>
         <v>18.027384219224153</v>
       </c>
-      <c r="D17" s="83">
+      <c r="D17" s="82">
         <f t="shared" si="6"/>
         <v>57.810359139919122</v>
       </c>
-      <c r="E17" s="83">
+      <c r="E17" s="82">
         <f t="shared" si="7"/>
         <v>1.0418222358237901</v>
       </c>
-      <c r="F17" s="83">
+      <c r="F17" s="82">
         <f t="shared" si="8"/>
         <v>0.10040271124561206</v>
       </c>
-      <c r="G17" s="83">
+      <c r="G17" s="82">
         <f t="shared" si="9"/>
         <v>904.24691708808177</v>
       </c>
-      <c r="H17" s="83">
+      <c r="H17" s="82">
         <f t="shared" si="10"/>
         <v>983.40169632873994</v>
       </c>
-      <c r="I17" s="84">
+      <c r="I17" s="83">
         <f t="shared" si="11"/>
         <v>4.0633818642508757E-2</v>
       </c>
-      <c r="J17" s="83">
+      <c r="J17" s="82">
         <f t="shared" si="12"/>
         <v>8.8370873092005336E-2</v>
       </c>
-      <c r="K17" s="83">
+      <c r="K17" s="82">
         <f t="shared" si="13"/>
         <v>0.73252146096277859</v>
       </c>
-      <c r="L17" s="83">
+      <c r="L17" s="82">
         <f t="shared" si="14"/>
         <v>2.349055648949772</v>
       </c>
-      <c r="M17" s="83">
+      <c r="M17" s="82">
         <f t="shared" si="15"/>
         <v>4.2333215788196876E-2</v>
       </c>
-      <c r="N17" s="83">
+      <c r="N17" s="82">
         <f t="shared" si="16"/>
         <v>4.0797455599703748E-3</v>
       </c>
-      <c r="O17" s="83">
+      <c r="O17" s="82">
         <f t="shared" si="17"/>
         <v>36.743005237004766</v>
       </c>
-      <c r="P17" s="124">
+      <c r="P17" s="102">
         <f>ABS(Tabella13[[#This Row],[N1]]-J16)</f>
         <v>1.2757599569930139E-3</v>
       </c>
@@ -8852,7 +8792,7 @@
         <f>ABS(Tabella13[[#This Row],[N3]]-L16)</f>
         <v>0.57814839480538138</v>
       </c>
-      <c r="S17" s="124">
+      <c r="S17" s="102">
         <f>ABS(Tabella13[[#This Row],[N4]]-M16)</f>
         <v>5.6138505671601835E-4</v>
       </c>
@@ -8869,63 +8809,63 @@
       <c r="A18">
         <v>8</v>
       </c>
-      <c r="B18" s="83">
+      <c r="B18" s="82">
         <f t="shared" si="4"/>
         <v>2.1723232025294106</v>
       </c>
-      <c r="C18" s="83">
+      <c r="C18" s="82">
         <f t="shared" si="5"/>
         <v>17.142084244387092</v>
       </c>
-      <c r="D18" s="83">
+      <c r="D18" s="82">
         <f t="shared" si="6"/>
         <v>49.354938865890418</v>
       </c>
-      <c r="E18" s="83">
+      <c r="E18" s="82">
         <f t="shared" si="7"/>
         <v>1.0412748853934919</v>
       </c>
-      <c r="F18" s="83">
+      <c r="F18" s="82">
         <f t="shared" si="8"/>
         <v>0.10039777519209712</v>
       </c>
-      <c r="G18" s="83">
+      <c r="G18" s="82">
         <f t="shared" si="9"/>
         <v>920.61075265199111</v>
       </c>
-      <c r="H18" s="83">
+      <c r="H18" s="82">
         <f t="shared" si="10"/>
         <v>990.4217716253836</v>
       </c>
-      <c r="I18" s="84">
+      <c r="I18" s="83">
         <f t="shared" si="11"/>
         <v>4.0346098043037841E-2</v>
       </c>
-      <c r="J18" s="83">
+      <c r="J18" s="82">
         <f t="shared" si="12"/>
         <v>8.7644764910417547E-2</v>
       </c>
-      <c r="K18" s="83">
+      <c r="K18" s="82">
         <f t="shared" si="13"/>
         <v>0.69161621158605591</v>
       </c>
-      <c r="L18" s="83">
+      <c r="L18" s="82">
         <f t="shared" si="14"/>
         <v>1.9912792023913537</v>
       </c>
-      <c r="M18" s="83">
+      <c r="M18" s="82">
         <f t="shared" si="15"/>
         <v>4.2011378615838813E-2</v>
       </c>
-      <c r="N18" s="83">
+      <c r="N18" s="82">
         <f t="shared" si="16"/>
         <v>4.0506584812032226E-3</v>
       </c>
-      <c r="O18" s="83">
+      <c r="O18" s="82">
         <f t="shared" si="17"/>
         <v>37.14305168597209</v>
       </c>
-      <c r="P18" s="124">
+      <c r="P18" s="102">
         <f>ABS(Tabella13[[#This Row],[N1]]-J17)</f>
         <v>7.2610818158778956E-4</v>
       </c>
@@ -8937,7 +8877,7 @@
         <f>ABS(Tabella13[[#This Row],[N3]]-L17)</f>
         <v>0.35777644655841834</v>
       </c>
-      <c r="S18" s="124">
+      <c r="S18" s="102">
         <f>ABS(Tabella13[[#This Row],[N4]]-M17)</f>
         <v>3.2183717235806375E-4</v>
       </c>
@@ -8954,63 +8894,63 @@
       <c r="A19">
         <v>9</v>
       </c>
-      <c r="B19" s="83">
+      <c r="B19" s="82">
         <f t="shared" si="4"/>
         <v>2.1709072915753143</v>
       </c>
-      <c r="C19" s="83">
+      <c r="C19" s="82">
         <f t="shared" si="5"/>
         <v>16.743258062964046</v>
       </c>
-      <c r="D19" s="83">
+      <c r="D19" s="82">
         <f t="shared" si="6"/>
         <v>44.122458334973544</v>
       </c>
-      <c r="E19" s="83">
+      <c r="E19" s="82">
         <f t="shared" si="7"/>
         <v>1.0409610941504428</v>
       </c>
-      <c r="F19" s="83">
+      <c r="F19" s="82">
         <f t="shared" si="8"/>
         <v>0.10039493920191732</v>
       </c>
-      <c r="G19" s="83">
+      <c r="G19" s="82">
         <f t="shared" si="9"/>
         <v>930.36188484556965</v>
       </c>
-      <c r="H19" s="83">
+      <c r="H19" s="82">
         <f t="shared" si="10"/>
         <v>994.53986456843495</v>
       </c>
-      <c r="I19" s="84">
+      <c r="I19" s="83">
         <f t="shared" si="11"/>
         <v>4.0179204694469908E-2</v>
       </c>
-      <c r="J19" s="83">
+      <c r="J19" s="82">
         <f t="shared" si="12"/>
         <v>8.7225328440921818E-2</v>
       </c>
-      <c r="K19" s="83">
+      <c r="K19" s="82">
         <f t="shared" si="13"/>
         <v>0.67273079296416616</v>
       </c>
-      <c r="L19" s="83">
+      <c r="L19" s="82">
         <f t="shared" si="14"/>
         <v>1.772805285064122</v>
       </c>
-      <c r="M19" s="83">
+      <c r="M19" s="82">
         <f t="shared" si="15"/>
         <v>4.1824988880850004E-2</v>
       </c>
-      <c r="N19" s="83">
+      <c r="N19" s="82">
         <f t="shared" si="16"/>
         <v>4.0337888124826974E-3</v>
       </c>
-      <c r="O19" s="83">
+      <c r="O19" s="82">
         <f t="shared" si="17"/>
         <v>37.381200611142987</v>
       </c>
-      <c r="P19" s="124">
+      <c r="P19" s="102">
         <f>ABS(Tabella13[[#This Row],[N1]]-J18)</f>
         <v>4.1943646949572921E-4</v>
       </c>
@@ -9022,7 +8962,7 @@
         <f>ABS(Tabella13[[#This Row],[N3]]-L18)</f>
         <v>0.21847391732723165</v>
       </c>
-      <c r="S19" s="124">
+      <c r="S19" s="102">
         <f>ABS(Tabella13[[#This Row],[N4]]-M18)</f>
         <v>1.8638973498880801E-4</v>
       </c>
@@ -9036,70 +8976,70 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="121">
+      <c r="A20" s="99">
         <v>10</v>
       </c>
-      <c r="B20" s="122">
+      <c r="B20" s="100">
         <f t="shared" si="4"/>
         <v>2.1700893904597978</v>
       </c>
-      <c r="C20" s="122">
+      <c r="C20" s="100">
         <f t="shared" si="5"/>
         <v>16.559125231400621</v>
       </c>
-      <c r="D20" s="122">
+      <c r="D20" s="100">
         <f t="shared" si="6"/>
         <v>40.927277294062783</v>
       </c>
-      <c r="E20" s="122">
+      <c r="E20" s="100">
         <f t="shared" si="7"/>
         <v>1.0407793641588288</v>
       </c>
-      <c r="F20" s="122">
+      <c r="F20" s="100">
         <f t="shared" si="8"/>
         <v>0.10039329440921707</v>
       </c>
-      <c r="G20" s="122">
+      <c r="G20" s="100">
         <f t="shared" si="9"/>
         <v>936.16676489661029</v>
       </c>
-      <c r="H20" s="122">
+      <c r="H20" s="100">
         <f t="shared" si="10"/>
         <v>996.96442947110154</v>
       </c>
-      <c r="I20" s="123">
+      <c r="I20" s="101">
         <f t="shared" si="11"/>
         <v>4.0081588901118542E-2</v>
       </c>
-      <c r="J20" s="122">
+      <c r="J20" s="100">
         <f t="shared" si="12"/>
         <v>8.6980630827088526E-2</v>
       </c>
-      <c r="K20" s="122">
+      <c r="K20" s="100">
         <f t="shared" si="13"/>
         <v>0.66371605008713919</v>
       </c>
-      <c r="L20" s="122">
+      <c r="L20" s="100">
         <f t="shared" si="14"/>
         <v>1.6404303033427077</v>
       </c>
-      <c r="M20" s="122">
+      <c r="M20" s="100">
         <f t="shared" si="15"/>
         <v>4.1716090610981728E-2</v>
       </c>
-      <c r="N20" s="122">
+      <c r="N20" s="100">
         <f t="shared" si="16"/>
         <v>4.0239227549392015E-3</v>
       </c>
-      <c r="O20" s="122">
+      <c r="O20" s="100">
         <f t="shared" si="17"/>
         <v>37.523051413476026</v>
       </c>
-      <c r="P20" s="124">
+      <c r="P20" s="102">
         <f>ABS(Tabella13[[#This Row],[N1]]-J19)</f>
         <v>2.446976138332918E-4</v>
       </c>
-      <c r="Q20" s="124">
+      <c r="Q20" s="102">
         <f>ABS(Tabella13[[#This Row],[N2]]-K19)</f>
         <v>9.0147428770269711E-3</v>
       </c>
@@ -9107,7 +9047,7 @@
         <f>ABS(Tabella13[[#This Row],[N3]]-L19)</f>
         <v>0.13237498172141438</v>
       </c>
-      <c r="S20" s="124">
+      <c r="S20" s="102">
         <f>ABS(Tabella13[[#This Row],[N4]]-M19)</f>
         <v>1.0889826986827666E-4</v>
       </c>
@@ -9121,70 +9061,70 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21" s="121">
+      <c r="A21" s="99">
         <v>11</v>
       </c>
-      <c r="B21" s="122">
+      <c r="B21" s="100">
         <f t="shared" ref="B21:B23" si="18">B$7*(1+J20*($N$3-1)/$N$3)</f>
         <v>2.1696122301128224</v>
       </c>
-      <c r="C21" s="122">
+      <c r="C21" s="100">
         <f t="shared" ref="C21:C23" si="19">C$7*(1+K20*($N$3-1)/$N$3)</f>
         <v>16.471231488349606</v>
       </c>
-      <c r="D21" s="122">
+      <c r="D21" s="100">
         <f t="shared" ref="D21:D23" si="20">D$7*(1+L20*($N$3-1)/$N$3)</f>
         <v>38.991293186387097</v>
       </c>
-      <c r="E21" s="122">
+      <c r="E21" s="100">
         <f t="shared" ref="E21:E23" si="21">E$7*(1+M20*($N$3-1)/$N$3)</f>
         <v>1.0406731883457072</v>
       </c>
-      <c r="F21" s="122">
+      <c r="F21" s="100">
         <f t="shared" ref="F21:F23" si="22">F$7*(1+N20*($N$3-1)/$N$3)</f>
         <v>0.10039233246860657</v>
       </c>
-      <c r="G21" s="122">
+      <c r="G21" s="100">
         <f t="shared" ref="G21:G23" si="23">G$7*(1+O20*($N$3-1)/$N$3)</f>
         <v>939.62437820347816</v>
       </c>
-      <c r="H21" s="122">
+      <c r="H21" s="100">
         <f t="shared" ref="H21:H23" si="24">SUM(B21:G21)</f>
         <v>998.397580629142</v>
       </c>
-      <c r="I21" s="123">
+      <c r="I21" s="101">
         <f t="shared" ref="I21:I23" si="25">$N$3/(H21+$A$3)</f>
         <v>4.0024111299948463E-2</v>
       </c>
-      <c r="J21" s="122">
+      <c r="J21" s="100">
         <f t="shared" ref="J21:J23" si="26">$I21*B21</f>
         <v>8.6836801375765008E-2</v>
       </c>
-      <c r="K21" s="122">
+      <c r="K21" s="100">
         <f t="shared" ref="K21:K23" si="27">$I21*C21</f>
         <v>0.65924640233692045</v>
       </c>
-      <c r="L21" s="122">
+      <c r="L21" s="100">
         <f t="shared" ref="L21:L23" si="28">$I21*D21</f>
         <v>1.5605918582208793</v>
       </c>
-      <c r="M21" s="122">
+      <c r="M21" s="100">
         <f t="shared" ref="M21:M23" si="29">$I21*E21</f>
         <v>4.1652019517220813E-2</v>
       </c>
-      <c r="N21" s="122">
+      <c r="N21" s="100">
         <f t="shared" ref="N21:N23" si="30">$I21*F21</f>
         <v>4.0181138883849396E-3</v>
       </c>
-      <c r="O21" s="122">
+      <c r="O21" s="100">
         <f t="shared" ref="O21:O23" si="31">$I21*G21</f>
         <v>37.607630693360882</v>
       </c>
-      <c r="P21" s="124">
+      <c r="P21" s="102">
         <f>ABS(Tabella13[[#This Row],[N1]]-J20)</f>
         <v>1.4382945132351832E-4</v>
       </c>
-      <c r="Q21" s="124">
+      <c r="Q21" s="102">
         <f>ABS(Tabella13[[#This Row],[N2]]-K20)</f>
         <v>4.4696477502187415E-3</v>
       </c>
@@ -9192,7 +9132,7 @@
         <f>ABS(Tabella13[[#This Row],[N3]]-L20)</f>
         <v>7.9838445121828361E-2</v>
       </c>
-      <c r="S21" s="124">
+      <c r="S21" s="102">
         <f>ABS(Tabella13[[#This Row],[N4]]-M20)</f>
         <v>6.4071093760914577E-5</v>
       </c>
@@ -9206,70 +9146,70 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="121">
+      <c r="A22" s="99">
         <v>12</v>
       </c>
-      <c r="B22" s="122">
+      <c r="B22" s="100">
         <f t="shared" si="18"/>
         <v>2.169331762682742</v>
       </c>
-      <c r="C22" s="122">
+      <c r="C22" s="100">
         <f t="shared" si="19"/>
         <v>16.427652422784973</v>
       </c>
-      <c r="D22" s="122">
+      <c r="D22" s="100">
         <f t="shared" si="20"/>
         <v>37.823655926480363</v>
       </c>
-      <c r="E22" s="122">
+      <c r="E22" s="100">
         <f t="shared" si="21"/>
         <v>1.0406107190292904</v>
       </c>
-      <c r="F22" s="122">
+      <c r="F22" s="100">
         <f t="shared" si="22"/>
         <v>0.10039176610411754</v>
       </c>
-      <c r="G22" s="122">
+      <c r="G22" s="100">
         <f t="shared" si="23"/>
         <v>941.68599815067148</v>
       </c>
-      <c r="H22" s="122">
+      <c r="H22" s="100">
         <f t="shared" si="24"/>
         <v>999.24764074775294</v>
       </c>
-      <c r="I22" s="123">
+      <c r="I22" s="101">
         <f t="shared" si="25"/>
         <v>3.9990096822520159E-2</v>
       </c>
-      <c r="J22" s="122">
+      <c r="J22" s="100">
         <f t="shared" si="26"/>
         <v>8.6751787229851177E-2</v>
       </c>
-      <c r="K22" s="122">
+      <c r="K22" s="100">
         <f t="shared" si="27"/>
         <v>0.65694341095387898</v>
       </c>
-      <c r="L22" s="122">
+      <c r="L22" s="100">
         <f t="shared" si="28"/>
         <v>1.5125716626816381</v>
       </c>
-      <c r="M22" s="122">
+      <c r="M22" s="100">
         <f t="shared" si="29"/>
         <v>4.161412340853364E-2</v>
       </c>
-      <c r="N22" s="122">
+      <c r="N22" s="100">
         <f t="shared" si="30"/>
         <v>4.0146764466874579E-3</v>
       </c>
-      <c r="O22" s="122">
+      <c r="O22" s="100">
         <f t="shared" si="31"/>
         <v>37.65811424245689</v>
       </c>
-      <c r="P22" s="124">
+      <c r="P22" s="102">
         <f>ABS(Tabella13[[#This Row],[N1]]-J21)</f>
         <v>8.5014145913830941E-5</v>
       </c>
-      <c r="Q22" s="124">
+      <c r="Q22" s="102">
         <f>ABS(Tabella13[[#This Row],[N2]]-K21)</f>
         <v>2.3029913830414639E-3</v>
       </c>
@@ -9277,7 +9217,7 @@
         <f>ABS(Tabella13[[#This Row],[N3]]-L21)</f>
         <v>4.8020195539241195E-2</v>
       </c>
-      <c r="S22" s="124">
+      <c r="S22" s="102">
         <f>ABS(Tabella13[[#This Row],[N4]]-M21)</f>
         <v>3.7896108687172914E-5</v>
       </c>
@@ -9291,70 +9231,70 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23" s="121">
+      <c r="A23" s="99">
         <v>13</v>
       </c>
-      <c r="B23" s="122">
+      <c r="B23" s="100">
         <f t="shared" si="18"/>
         <v>2.1691659850982097</v>
       </c>
-      <c r="C23" s="122">
+      <c r="C23" s="100">
         <f t="shared" si="19"/>
         <v>16.405198256800318</v>
       </c>
-      <c r="D23" s="122">
+      <c r="D23" s="100">
         <f t="shared" si="20"/>
         <v>37.121360566718955</v>
       </c>
-      <c r="E23" s="122">
+      <c r="E23" s="100">
         <f t="shared" si="21"/>
         <v>1.0405737703233202</v>
       </c>
-      <c r="F23" s="122">
+      <c r="F23" s="100">
         <f t="shared" si="22"/>
         <v>0.10039143095355203</v>
       </c>
-      <c r="G23" s="122">
+      <c r="G23" s="100">
         <f t="shared" si="23"/>
         <v>942.91653465988679</v>
       </c>
-      <c r="H23" s="122">
+      <c r="H23" s="100">
         <f t="shared" si="24"/>
         <v>999.75322466978116</v>
       </c>
-      <c r="I23" s="123">
+      <c r="I23" s="101">
         <f t="shared" si="25"/>
         <v>3.9969893690024141E-2</v>
       </c>
-      <c r="J23" s="122">
+      <c r="J23" s="100">
         <f t="shared" si="26"/>
         <v>8.6701333820391926E-2</v>
       </c>
-      <c r="K23" s="122">
+      <c r="K23" s="100">
         <f t="shared" si="27"/>
         <v>0.65571403028807806</v>
       </c>
-      <c r="L23" s="122">
+      <c r="L23" s="100">
         <f t="shared" si="28"/>
         <v>1.4837368354808109</v>
       </c>
-      <c r="M23" s="122">
+      <c r="M23" s="100">
         <f t="shared" si="29"/>
         <v>4.1591622976450707E-2</v>
       </c>
-      <c r="N23" s="122">
+      <c r="N23" s="100">
         <f t="shared" si="30"/>
         <v>4.012634822602874E-3</v>
       </c>
-      <c r="O23" s="122">
+      <c r="O23" s="100">
         <f t="shared" si="31"/>
         <v>37.688273648921637</v>
       </c>
-      <c r="P23" s="124">
+      <c r="P23" s="102">
         <f>ABS(Tabella13[[#This Row],[N1]]-J22)</f>
         <v>5.0453409459250143E-5</v>
       </c>
-      <c r="Q23" s="124">
+      <c r="Q23" s="102">
         <f>ABS(Tabella13[[#This Row],[N2]]-K22)</f>
         <v>1.2293806658009165E-3</v>
       </c>
@@ -9362,7 +9302,7 @@
         <f>ABS(Tabella13[[#This Row],[N3]]-L22)</f>
         <v>2.8834827200827196E-2</v>
       </c>
-      <c r="S23" s="124">
+      <c r="S23" s="102">
         <f>ABS(Tabella13[[#This Row],[N4]]-M22)</f>
         <v>2.2500432082933619E-5</v>
       </c>
@@ -9376,70 +9316,70 @@
       </c>
     </row>
     <row r="24" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="121">
+      <c r="A24" s="99">
         <v>14</v>
       </c>
-      <c r="B24" s="122">
+      <c r="B24" s="100">
         <f t="shared" ref="B24:B26" si="32">B$7*(1+J23*($N$3-1)/$N$3)</f>
         <v>2.1690676009497643</v>
       </c>
-      <c r="C24" s="122">
+      <c r="C24" s="100">
         <f t="shared" ref="C24:C26" si="33">C$7*(1+K23*($N$3-1)/$N$3)</f>
         <v>16.393211795308762</v>
       </c>
-      <c r="D24" s="122">
+      <c r="D24" s="100">
         <f t="shared" ref="D24:D26" si="34">D$7*(1+L23*($N$3-1)/$N$3)</f>
         <v>36.699651218906858</v>
       </c>
-      <c r="E24" s="122">
+      <c r="E24" s="100">
         <f t="shared" ref="E24:E26" si="35">E$7*(1+M23*($N$3-1)/$N$3)</f>
         <v>1.0405518324020395</v>
       </c>
-      <c r="F24" s="122">
+      <c r="F24" s="100">
         <f t="shared" ref="F24:F26" si="36">F$7*(1+N23*($N$3-1)/$N$3)</f>
         <v>0.10039123189520378</v>
       </c>
-      <c r="G24" s="122">
+      <c r="G24" s="100">
         <f t="shared" ref="G24:G26" si="37">G$7*(1+O23*($N$3-1)/$N$3)</f>
         <v>943.65167019246496</v>
       </c>
-      <c r="H24" s="122">
+      <c r="H24" s="100">
         <f t="shared" ref="H24:H26" si="38">SUM(B24:G24)</f>
         <v>1000.0545438719275</v>
       </c>
-      <c r="I24" s="123">
+      <c r="I24" s="101">
         <f t="shared" ref="I24:I26" si="39">$N$3/(H24+$A$3)</f>
         <v>3.995786268077467E-2</v>
       </c>
-      <c r="J24" s="122">
+      <c r="J24" s="100">
         <f t="shared" ref="J24:J26" si="40">$I24*B24</f>
         <v>8.6671305344068028E-2</v>
       </c>
-      <c r="K24" s="122">
+      <c r="K24" s="100">
         <f t="shared" ref="K24:K26" si="41">$I24*C24</f>
         <v>0.65503770581380305</v>
       </c>
-      <c r="L24" s="122">
+      <c r="L24" s="100">
         <f t="shared" ref="L24:L26" si="42">$I24*D24</f>
         <v>1.4664396238374049</v>
       </c>
-      <c r="M24" s="122">
+      <c r="M24" s="100">
         <f t="shared" ref="M24:M26" si="43">$I24*E24</f>
         <v>4.157822723134915E-2</v>
       </c>
-      <c r="N24" s="122">
+      <c r="N24" s="100">
         <f t="shared" ref="N24:N26" si="44">$I24*F24</f>
         <v>4.0114190584223585E-3</v>
       </c>
-      <c r="O24" s="122">
+      <c r="O24" s="100">
         <f t="shared" ref="O24:O26" si="45">$I24*G24</f>
         <v>37.706303856034182</v>
       </c>
-      <c r="P24" s="124">
+      <c r="P24" s="102">
         <f>ABS(Tabella13[[#This Row],[N1]]-J23)</f>
         <v>3.0028476323898379E-5</v>
       </c>
-      <c r="Q24" s="124">
+      <c r="Q24" s="102">
         <f>ABS(Tabella13[[#This Row],[N2]]-K23)</f>
         <v>6.7632447427501408E-4</v>
       </c>
@@ -9447,7 +9387,7 @@
         <f>ABS(Tabella13[[#This Row],[N3]]-L23)</f>
         <v>1.729721164340603E-2</v>
       </c>
-      <c r="S24" s="124">
+      <c r="S24" s="102">
         <f>ABS(Tabella13[[#This Row],[N4]]-M23)</f>
         <v>1.3395745101556222E-5</v>
       </c>
@@ -9461,70 +9401,70 @@
       </c>
     </row>
     <row r="25" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="121">
+      <c r="A25" s="99">
         <v>15</v>
       </c>
-      <c r="B25" s="122">
+      <c r="B25" s="100">
         <f t="shared" si="32"/>
         <v>2.1690090454209328</v>
       </c>
-      <c r="C25" s="122">
+      <c r="C25" s="100">
         <f t="shared" si="33"/>
         <v>16.38661763168458</v>
       </c>
-      <c r="D25" s="122">
+      <c r="D25" s="100">
         <f t="shared" si="34"/>
         <v>36.446679498622046</v>
       </c>
-      <c r="E25" s="122">
+      <c r="E25" s="100">
         <f t="shared" si="35"/>
         <v>1.0405387715505654</v>
       </c>
-      <c r="F25" s="122">
+      <c r="F25" s="100">
         <f t="shared" si="36"/>
         <v>0.10039111335819617</v>
       </c>
-      <c r="G25" s="122">
+      <c r="G25" s="100">
         <f t="shared" si="37"/>
         <v>944.0911564908331</v>
       </c>
-      <c r="H25" s="122">
+      <c r="H25" s="100">
         <f t="shared" si="38"/>
         <v>1000.2343925514695</v>
       </c>
-      <c r="I25" s="123">
+      <c r="I25" s="101">
         <f t="shared" si="39"/>
         <v>3.9950685171797833E-2</v>
       </c>
-      <c r="J25" s="122">
+      <c r="J25" s="100">
         <f t="shared" si="40"/>
         <v>8.6653397508393432E-2</v>
       </c>
-      <c r="K25" s="122">
+      <c r="K25" s="100">
         <f t="shared" si="41"/>
         <v>0.65465660203406206</v>
       </c>
-      <c r="L25" s="122">
+      <c r="L25" s="100">
         <f t="shared" si="42"/>
         <v>1.4560698182068679</v>
       </c>
-      <c r="M25" s="122">
+      <c r="M25" s="100">
         <f t="shared" si="43"/>
         <v>4.1570236871265903E-2</v>
       </c>
-      <c r="N25" s="122">
+      <c r="N25" s="100">
         <f t="shared" si="44"/>
         <v>4.0106937638195632E-3</v>
       </c>
-      <c r="O25" s="122">
+      <c r="O25" s="100">
         <f t="shared" si="45"/>
         <v>37.717088566443792</v>
       </c>
-      <c r="P25" s="124">
+      <c r="P25" s="102">
         <f>ABS(Tabella13[[#This Row],[N1]]-J24)</f>
         <v>1.7907835674596528E-5</v>
       </c>
-      <c r="Q25" s="124">
+      <c r="Q25" s="102">
         <f>ABS(Tabella13[[#This Row],[N2]]-K24)</f>
         <v>3.8110377974098775E-4</v>
       </c>
@@ -9532,7 +9472,7 @@
         <f>ABS(Tabella13[[#This Row],[N3]]-L24)</f>
         <v>1.0369805630537021E-2</v>
       </c>
-      <c r="S25" s="124">
+      <c r="S25" s="102">
         <f>ABS(Tabella13[[#This Row],[N4]]-M24)</f>
         <v>7.9903600832473276E-6</v>
       </c>
@@ -9546,70 +9486,70 @@
       </c>
     </row>
     <row r="26" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69">
+      <c r="A26" s="99">
         <v>16</v>
       </c>
-      <c r="B26" s="85">
+      <c r="B26" s="100">
         <f t="shared" si="32"/>
         <v>2.168974125141367</v>
       </c>
-      <c r="C26" s="85">
+      <c r="C26" s="100">
         <f t="shared" si="33"/>
         <v>16.382901869832104</v>
       </c>
-      <c r="D26" s="85">
+      <c r="D26" s="100">
         <f t="shared" si="34"/>
         <v>36.295021091275437</v>
       </c>
-      <c r="E26" s="85">
+      <c r="E26" s="100">
         <f t="shared" si="35"/>
         <v>1.0405309809494843</v>
       </c>
-      <c r="F26" s="85">
+      <c r="F26" s="100">
         <f t="shared" si="36"/>
         <v>0.10039104264197241</v>
       </c>
-      <c r="G26" s="85">
+      <c r="G26" s="100">
         <f t="shared" si="37"/>
         <v>944.35403380706737</v>
       </c>
-      <c r="H26" s="85">
+      <c r="H26" s="100">
         <f t="shared" si="38"/>
         <v>1000.3418529169078</v>
       </c>
-      <c r="I26" s="86">
+      <c r="I26" s="101">
         <f t="shared" si="39"/>
         <v>3.9946397809579259E-2</v>
       </c>
-      <c r="J26" s="85">
+      <c r="J26" s="100">
         <f t="shared" si="40"/>
         <v>8.6642703241581187E-2</v>
       </c>
-      <c r="K26" s="85">
+      <c r="K26" s="100">
         <f t="shared" si="41"/>
         <v>0.65443791536761309</v>
       </c>
-      <c r="L26" s="85">
+      <c r="L26" s="100">
         <f t="shared" si="42"/>
         <v>1.4498553510191581</v>
       </c>
-      <c r="M26" s="85">
+      <c r="M26" s="100">
         <f t="shared" si="43"/>
         <v>4.1565464498199839E-2</v>
       </c>
-      <c r="N26" s="85">
+      <c r="N26" s="100">
         <f t="shared" si="44"/>
         <v>4.0102605258946645E-3</v>
       </c>
-      <c r="O26" s="85">
+      <c r="O26" s="100">
         <f t="shared" si="45"/>
         <v>37.723541907537971</v>
       </c>
-      <c r="P26" s="124">
+      <c r="P26" s="102">
         <f>ABS(Tabella13[[#This Row],[N1]]-J25)</f>
         <v>1.0694266812244502E-5</v>
       </c>
-      <c r="Q26" s="124">
+      <c r="Q26" s="102">
         <f>ABS(Tabella13[[#This Row],[N2]]-K25)</f>
         <v>2.1868666644897505E-4</v>
       </c>
@@ -9617,7 +9557,7 @@
         <f>ABS(Tabella13[[#This Row],[N3]]-L25)</f>
         <v>6.2144671877097934E-3</v>
       </c>
-      <c r="S26" s="124">
+      <c r="S26" s="102">
         <f>ABS(Tabella13[[#This Row],[N4]]-M25)</f>
         <v>4.7723730660642616E-6</v>
       </c>
@@ -9631,402 +9571,1143 @@
       </c>
     </row>
     <row r="27" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="96"/>
-      <c r="L27" s="96"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="41"/>
-      <c r="Q27" s="41"/>
-      <c r="R27" s="73"/>
-      <c r="S27" s="73"/>
-      <c r="T27" s="73"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="90"/>
-      <c r="W27" s="90"/>
-      <c r="X27" s="90"/>
+      <c r="A27" s="99">
+        <v>17</v>
+      </c>
+      <c r="B27" s="100">
+        <f t="shared" ref="B27:B39" si="46">B$7*(1+J26*($N$3-1)/$N$3)</f>
+        <v>2.1689532713210835</v>
+      </c>
+      <c r="C27" s="100">
+        <f t="shared" ref="C27:C39" si="47">C$7*(1+K26*($N$3-1)/$N$3)</f>
+        <v>16.380769674834227</v>
+      </c>
+      <c r="D27" s="100">
+        <f t="shared" ref="D27:D39" si="48">D$7*(1+L26*($N$3-1)/$N$3)</f>
+        <v>36.204134508655187</v>
+      </c>
+      <c r="E27" s="100">
+        <f t="shared" ref="E27:E39" si="49">E$7*(1+M26*($N$3-1)/$N$3)</f>
+        <v>1.0405263278857448</v>
+      </c>
+      <c r="F27" s="100">
+        <f t="shared" ref="F27:F39" si="50">F$7*(1+N26*($N$3-1)/$N$3)</f>
+        <v>0.10039100040127474</v>
+      </c>
+      <c r="G27" s="100">
+        <f t="shared" ref="G27:G39" si="51">G$7*(1+O26*($N$3-1)/$N$3)</f>
+        <v>944.51133399623791</v>
+      </c>
+      <c r="H27" s="100">
+        <f t="shared" ref="H27:H39" si="52">SUM(B27:G27)</f>
+        <v>1000.4061087793355</v>
+      </c>
+      <c r="I27" s="101">
+        <f t="shared" ref="I27:I39" si="53">$N$3/(H27+$A$3)</f>
+        <v>3.9943834623455639E-2</v>
+      </c>
+      <c r="J27" s="100">
+        <f t="shared" ref="J27:J39" si="54">$I27*B27</f>
+        <v>8.6636310775652467E-2</v>
+      </c>
+      <c r="K27" s="100">
+        <f t="shared" ref="K27:K39" si="55">$I27*C27</f>
+        <v>0.65431075489649559</v>
+      </c>
+      <c r="L27" s="100">
+        <f t="shared" ref="L27:L39" si="56">$I27*D27</f>
+        <v>1.4461319614990662</v>
+      </c>
+      <c r="M27" s="100">
+        <f t="shared" ref="M27:M39" si="57">$I27*E27</f>
+        <v>4.156261156241977E-2</v>
+      </c>
+      <c r="N27" s="100">
+        <f t="shared" ref="N27:N39" si="58">$I27*F27</f>
+        <v>4.0100015177117867E-3</v>
+      </c>
+      <c r="O27" s="100">
+        <f t="shared" ref="O27:O39" si="59">$I27*G27</f>
+        <v>37.727404525125202</v>
+      </c>
+      <c r="P27" s="102">
+        <f>ABS(Tabella13[[#This Row],[N1]]-J26)</f>
+        <v>6.3924659287201147E-6</v>
+      </c>
+      <c r="Q27" s="102">
+        <f>ABS(Tabella13[[#This Row],[N2]]-K26)</f>
+        <v>1.271604711174934E-4</v>
+      </c>
+      <c r="R27" s="41">
+        <f>ABS(Tabella13[[#This Row],[N3]]-L26)</f>
+        <v>3.7233895200918798E-3</v>
+      </c>
+      <c r="S27" s="102">
+        <f>ABS(Tabella13[[#This Row],[N4]]-M26)</f>
+        <v>2.8529357800691213E-6</v>
+      </c>
+      <c r="T27" s="41">
+        <f>ABS(Tabella13[[#This Row],[N5]]-N26)</f>
+        <v>2.5900818287783595E-7</v>
+      </c>
+      <c r="U27" s="41">
+        <f>ABS(Tabella13[[#This Row],[N6]]-O26)</f>
+        <v>3.8626175872309432E-3</v>
+      </c>
+      <c r="V27" s="89"/>
+      <c r="W27" s="89"/>
+      <c r="X27" s="89"/>
     </row>
     <row r="28" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="B28" s="85">
-        <v>2.1739130431163289</v>
-      </c>
-      <c r="C28" s="85">
-        <v>16.666666630594161</v>
-      </c>
-      <c r="D28" s="85">
-        <v>37.499998470017871</v>
-      </c>
-      <c r="E28" s="85">
-        <v>1.0416666665861476</v>
-      </c>
-      <c r="F28" s="85">
-        <v>0.1004016064249736</v>
-      </c>
-      <c r="G28" s="85">
-        <v>941.5173546654371</v>
-      </c>
-      <c r="H28" s="85">
-        <v>999.0000010821766</v>
-      </c>
-      <c r="I28" s="86">
-        <v>3.9999999956712939E-2</v>
-      </c>
-      <c r="J28" s="85">
-        <v>8.6956521630550856E-2</v>
-      </c>
-      <c r="K28" s="85">
-        <v>0.66666666450231549</v>
-      </c>
-      <c r="L28" s="85">
-        <v>1.4999999371774502</v>
-      </c>
-      <c r="M28" s="85">
-        <v>4.1666666618355212E-2</v>
-      </c>
-      <c r="N28" s="85">
-        <v>4.0160642526528532E-3</v>
-      </c>
-      <c r="O28" s="85">
-        <v>37.660694145861967</v>
-      </c>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="68"/>
-      <c r="T28" s="68"/>
-      <c r="U28" s="68"/>
+      <c r="A28" s="99">
+        <v>18</v>
+      </c>
+      <c r="B28" s="100">
+        <f t="shared" si="46"/>
+        <v>2.1689408060125221</v>
+      </c>
+      <c r="C28" s="100">
+        <f t="shared" si="47"/>
+        <v>16.379529860240829</v>
+      </c>
+      <c r="D28" s="100">
+        <f t="shared" si="48"/>
+        <v>36.149679936923839</v>
+      </c>
+      <c r="E28" s="100">
+        <f t="shared" si="49"/>
+        <v>1.0405235462733593</v>
+      </c>
+      <c r="F28" s="100">
+        <f t="shared" si="50"/>
+        <v>0.1003909751479769</v>
+      </c>
+      <c r="G28" s="100">
+        <f t="shared" si="51"/>
+        <v>944.60548529992684</v>
+      </c>
+      <c r="H28" s="100">
+        <f t="shared" si="52"/>
+        <v>1000.4445504245253</v>
+      </c>
+      <c r="I28" s="101">
+        <f t="shared" si="53"/>
+        <v>3.9942301331654842E-2</v>
+      </c>
+      <c r="J28" s="100">
+        <f t="shared" si="54"/>
+        <v>8.6632487244274484E-2</v>
+      </c>
+      <c r="K28" s="100">
+        <f t="shared" si="55"/>
+        <v>0.65423611734857756</v>
+      </c>
+      <c r="L28" s="100">
+        <f t="shared" si="56"/>
+        <v>1.4439014090834894</v>
+      </c>
+      <c r="M28" s="100">
+        <f t="shared" si="57"/>
+        <v>4.1560905027932617E-2</v>
+      </c>
+      <c r="N28" s="100">
+        <f t="shared" si="58"/>
+        <v>4.0098465803391657E-3</v>
+      </c>
+      <c r="O28" s="100">
+        <f t="shared" si="59"/>
+        <v>37.729716933383735</v>
+      </c>
+      <c r="P28" s="102">
+        <f>ABS(Tabella13[[#This Row],[N1]]-J27)</f>
+        <v>3.8235313779833024E-6</v>
+      </c>
+      <c r="Q28" s="102">
+        <f>ABS(Tabella13[[#This Row],[N2]]-K27)</f>
+        <v>7.4637547918032787E-5</v>
+      </c>
+      <c r="R28" s="41">
+        <f>ABS(Tabella13[[#This Row],[N3]]-L27)</f>
+        <v>2.230552415576792E-3</v>
+      </c>
+      <c r="S28" s="102">
+        <f>ABS(Tabella13[[#This Row],[N4]]-M27)</f>
+        <v>1.7065344871530774E-6</v>
+      </c>
+      <c r="T28" s="41">
+        <f>ABS(Tabella13[[#This Row],[N5]]-N27)</f>
+        <v>1.5493737262096963E-7</v>
+      </c>
+      <c r="U28" s="41">
+        <f>ABS(Tabella13[[#This Row],[N6]]-O27)</f>
+        <v>2.3124082585326278E-3</v>
+      </c>
       <c r="V28" s="71"/>
       <c r="W28" s="71"/>
       <c r="X28" s="71"/>
     </row>
     <row r="29" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="95">
-        <f>ABS(B28-B26)</f>
-        <v>4.9389179749619316E-3</v>
-      </c>
-      <c r="C29" s="95">
-        <f t="shared" ref="C29:O29" si="46">ABS(C28-C26)</f>
-        <v>0.28376476076205748</v>
-      </c>
-      <c r="D29" s="95">
+      <c r="A29" s="99">
+        <v>19</v>
+      </c>
+      <c r="B29" s="100">
         <f t="shared" si="46"/>
-        <v>1.2049773787424343</v>
-      </c>
-      <c r="E29" s="95">
+        <v>2.168933350126335</v>
+      </c>
+      <c r="C29" s="100">
+        <f t="shared" si="47"/>
+        <v>16.378802144148633</v>
+      </c>
+      <c r="D29" s="100">
+        <f t="shared" si="48"/>
+        <v>36.117058107846034</v>
+      </c>
+      <c r="E29" s="100">
+        <f t="shared" si="49"/>
+        <v>1.0405218824022342</v>
+      </c>
+      <c r="F29" s="100">
+        <f t="shared" si="50"/>
+        <v>0.10039096004158309</v>
+      </c>
+      <c r="G29" s="100">
+        <f t="shared" si="51"/>
+        <v>944.66185025122854</v>
+      </c>
+      <c r="H29" s="100">
+        <f t="shared" si="52"/>
+        <v>1000.4675566957934</v>
+      </c>
+      <c r="I29" s="101">
+        <f t="shared" si="53"/>
+        <v>3.994138375483134E-2</v>
+      </c>
+      <c r="J29" s="100">
+        <f t="shared" si="54"/>
+        <v>8.6630199276047912E-2</v>
+      </c>
+      <c r="K29" s="100">
+        <f t="shared" si="55"/>
+        <v>0.65419202188389491</v>
+      </c>
+      <c r="L29" s="100">
+        <f t="shared" si="56"/>
+        <v>1.4425652779810212</v>
+      </c>
+      <c r="M29" s="100">
+        <f t="shared" si="57"/>
+        <v>4.1559883810327124E-2</v>
+      </c>
+      <c r="N29" s="100">
+        <f t="shared" si="58"/>
+        <v>4.0097538605368089E-3</v>
+      </c>
+      <c r="O29" s="100">
+        <f t="shared" si="59"/>
+        <v>37.731101479433335</v>
+      </c>
+      <c r="P29" s="102">
+        <f>ABS(Tabella13[[#This Row],[N1]]-J28)</f>
+        <v>2.287968226571957E-6</v>
+      </c>
+      <c r="Q29" s="102">
+        <f>ABS(Tabella13[[#This Row],[N2]]-K28)</f>
+        <v>4.4095464682647467E-5</v>
+      </c>
+      <c r="R29" s="41">
+        <f>ABS(Tabella13[[#This Row],[N3]]-L28)</f>
+        <v>1.3361311024682188E-3</v>
+      </c>
+      <c r="S29" s="102">
+        <f>ABS(Tabella13[[#This Row],[N4]]-M28)</f>
+        <v>1.0212176054930078E-6</v>
+      </c>
+      <c r="T29" s="41">
+        <f>ABS(Tabella13[[#This Row],[N5]]-N28)</f>
+        <v>9.2719802356755476E-8</v>
+      </c>
+      <c r="U29" s="41">
+        <f>ABS(Tabella13[[#This Row],[N6]]-O28)</f>
+        <v>1.3845460496000328E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="99">
+        <v>20</v>
+      </c>
+      <c r="B30" s="100">
         <f t="shared" si="46"/>
-        <v>1.1356856366633306E-3</v>
-      </c>
-      <c r="F29" s="95">
+        <v>2.1689288885882934</v>
+      </c>
+      <c r="C30" s="100">
+        <f t="shared" si="47"/>
+        <v>16.378372213367975</v>
+      </c>
+      <c r="D30" s="100">
+        <f t="shared" si="48"/>
+        <v>36.097517190472438</v>
+      </c>
+      <c r="E30" s="100">
+        <f t="shared" si="49"/>
+        <v>1.040520886715069</v>
+      </c>
+      <c r="F30" s="100">
+        <f t="shared" si="50"/>
+        <v>0.10039095100140234</v>
+      </c>
+      <c r="G30" s="100">
+        <f t="shared" si="51"/>
+        <v>944.69559856118758</v>
+      </c>
+      <c r="H30" s="100">
+        <f t="shared" si="52"/>
+        <v>1000.4813286913328</v>
+      </c>
+      <c r="I30" s="101">
+        <f t="shared" si="53"/>
+        <v>3.9940834495905443E-2</v>
+      </c>
+      <c r="J30" s="100">
+        <f t="shared" si="54"/>
+        <v>8.6628829772493157E-2</v>
+      </c>
+      <c r="K30" s="100">
+        <f t="shared" si="55"/>
+        <v>0.65416585388646675</v>
+      </c>
+      <c r="L30" s="100">
+        <f t="shared" si="56"/>
+        <v>1.4417649598177613</v>
+      </c>
+      <c r="M30" s="100">
+        <f t="shared" si="57"/>
+        <v>4.1559272525819348E-2</v>
+      </c>
+      <c r="N30" s="100">
+        <f t="shared" si="58"/>
+        <v>4.0096983588335635E-3</v>
+      </c>
+      <c r="O30" s="100">
+        <f t="shared" si="59"/>
+        <v>37.731930551142725</v>
+      </c>
+      <c r="P30" s="102">
+        <f>ABS(Tabella13[[#This Row],[N1]]-J29)</f>
+        <v>1.3695035547545142E-6</v>
+      </c>
+      <c r="Q30" s="102">
+        <f>ABS(Tabella13[[#This Row],[N2]]-K29)</f>
+        <v>2.6167997428161449E-5</v>
+      </c>
+      <c r="R30" s="41">
+        <f>ABS(Tabella13[[#This Row],[N3]]-L29)</f>
+        <v>8.0031816325987215E-4</v>
+      </c>
+      <c r="S30" s="102">
+        <f>ABS(Tabella13[[#This Row],[N4]]-M29)</f>
+        <v>6.1128450777603316E-7</v>
+      </c>
+      <c r="T30" s="41">
+        <f>ABS(Tabella13[[#This Row],[N5]]-N29)</f>
+        <v>5.5501703245461331E-8</v>
+      </c>
+      <c r="U30" s="41">
+        <f>ABS(Tabella13[[#This Row],[N6]]-O29)</f>
+        <v>8.2907170938995023E-4</v>
+      </c>
+      <c r="V30" s="89"/>
+      <c r="W30" s="89"/>
+      <c r="X30" s="89"/>
+    </row>
+    <row r="31" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="99">
+        <v>21</v>
+      </c>
+      <c r="B31" s="100">
         <f t="shared" si="46"/>
-        <v>1.0563783001196758E-5</v>
-      </c>
-      <c r="G29" s="95">
+        <v>2.1689262180563618</v>
+      </c>
+      <c r="C31" s="100">
+        <f t="shared" si="47"/>
+        <v>16.37811707539305</v>
+      </c>
+      <c r="D31" s="100">
+        <f t="shared" si="48"/>
+        <v>36.08581253733476</v>
+      </c>
+      <c r="E31" s="100">
+        <f t="shared" si="49"/>
+        <v>1.0405202907126738</v>
+      </c>
+      <c r="F31" s="100">
+        <f t="shared" si="50"/>
+        <v>0.10039094558998628</v>
+      </c>
+      <c r="G31" s="100">
+        <f t="shared" si="51"/>
+        <v>944.71580718410394</v>
+      </c>
+      <c r="H31" s="100">
+        <f t="shared" si="52"/>
+        <v>1000.4895742511908</v>
+      </c>
+      <c r="I31" s="101">
+        <f t="shared" si="53"/>
+        <v>3.9940505651202426E-2</v>
+      </c>
+      <c r="J31" s="100">
+        <f t="shared" si="54"/>
+        <v>8.6628009869321218E-2</v>
+      </c>
+      <c r="K31" s="100">
+        <f t="shared" si="55"/>
+        <v>0.65415027760579103</v>
+      </c>
+      <c r="L31" s="100">
+        <f t="shared" si="56"/>
+        <v>1.4412855995756504</v>
+      </c>
+      <c r="M31" s="100">
+        <f t="shared" si="57"/>
+        <v>4.1558906551400342E-2</v>
+      </c>
+      <c r="N31" s="100">
+        <f t="shared" si="58"/>
+        <v>4.0096651296664025E-3</v>
+      </c>
+      <c r="O31" s="100">
+        <f t="shared" si="59"/>
+        <v>37.732427035616965</v>
+      </c>
+      <c r="P31" s="102">
+        <f>ABS(Tabella13[[#This Row],[N1]]-J30)</f>
+        <v>8.1990317193914031E-7</v>
+      </c>
+      <c r="Q31" s="102">
+        <f>ABS(Tabella13[[#This Row],[N2]]-K30)</f>
+        <v>1.5576280675722032E-5</v>
+      </c>
+      <c r="R31" s="41">
+        <f>ABS(Tabella13[[#This Row],[N3]]-L30)</f>
+        <v>4.7936024211092665E-4</v>
+      </c>
+      <c r="S31" s="102">
+        <f>ABS(Tabella13[[#This Row],[N4]]-M30)</f>
+        <v>3.6597441900598771E-7</v>
+      </c>
+      <c r="T31" s="41">
+        <f>ABS(Tabella13[[#This Row],[N5]]-N30)</f>
+        <v>3.3229167160919726E-8</v>
+      </c>
+      <c r="U31" s="41">
+        <f>ABS(Tabella13[[#This Row],[N6]]-O30)</f>
+        <v>4.9648447424033293E-4</v>
+      </c>
+      <c r="V31" s="97"/>
+      <c r="W31" s="97"/>
+      <c r="X31" s="97"/>
+    </row>
+    <row r="32" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="99">
+        <v>22</v>
+      </c>
+      <c r="B32" s="100">
         <f t="shared" si="46"/>
-        <v>2.8366791416302704</v>
-      </c>
-      <c r="H29" s="95">
+        <v>2.1689246192451765</v>
+      </c>
+      <c r="C32" s="100">
+        <f t="shared" si="47"/>
+        <v>16.377965206656462</v>
+      </c>
+      <c r="D32" s="100">
+        <f t="shared" si="48"/>
+        <v>36.07880189379388</v>
+      </c>
+      <c r="E32" s="100">
+        <f t="shared" si="49"/>
+        <v>1.0405199338876154</v>
+      </c>
+      <c r="F32" s="100">
+        <f t="shared" si="50"/>
+        <v>0.10039094235014248</v>
+      </c>
+      <c r="G32" s="100">
+        <f t="shared" si="51"/>
+        <v>944.72790899316351</v>
+      </c>
+      <c r="H32" s="100">
+        <f t="shared" si="52"/>
+        <v>1000.4945115890968</v>
+      </c>
+      <c r="I32" s="101">
+        <f t="shared" si="53"/>
+        <v>3.9940308745707441E-2</v>
+      </c>
+      <c r="J32" s="100">
+        <f t="shared" si="54"/>
+        <v>8.6627518938818301E-2</v>
+      </c>
+      <c r="K32" s="100">
+        <f t="shared" si="55"/>
+        <v>0.65414098698031331</v>
+      </c>
+      <c r="L32" s="100">
+        <f t="shared" si="56"/>
+        <v>1.4409984868133419</v>
+      </c>
+      <c r="M32" s="100">
+        <f t="shared" si="57"/>
+        <v>4.1558687415534458E-2</v>
+      </c>
+      <c r="N32" s="100">
+        <f t="shared" si="58"/>
+        <v>4.0096452327372072E-3</v>
+      </c>
+      <c r="O32" s="100">
+        <f t="shared" si="59"/>
+        <v>37.732724365873551</v>
+      </c>
+      <c r="P32" s="102">
+        <f>ABS(Tabella13[[#This Row],[N1]]-J31)</f>
+        <v>4.9093050291659779E-7</v>
+      </c>
+      <c r="Q32" s="102">
+        <f>ABS(Tabella13[[#This Row],[N2]]-K31)</f>
+        <v>9.2906254777203046E-6</v>
+      </c>
+      <c r="R32" s="41">
+        <f>ABS(Tabella13[[#This Row],[N3]]-L31)</f>
+        <v>2.8711276230852789E-4</v>
+      </c>
+      <c r="S32" s="102">
+        <f>ABS(Tabella13[[#This Row],[N4]]-M31)</f>
+        <v>2.1913586588373501E-7</v>
+      </c>
+      <c r="T32" s="41">
+        <f>ABS(Tabella13[[#This Row],[N5]]-N31)</f>
+        <v>1.9896929195385715E-8</v>
+      </c>
+      <c r="U32" s="41">
+        <f>ABS(Tabella13[[#This Row],[N6]]-O31)</f>
+        <v>2.9733025658629231E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="99">
+        <v>23</v>
+      </c>
+      <c r="B33" s="100">
         <f t="shared" si="46"/>
-        <v>1.3418518347311874</v>
-      </c>
-      <c r="I29" s="95">
+        <v>2.1689236619306955</v>
+      </c>
+      <c r="C33" s="100">
+        <f t="shared" si="47"/>
+        <v>16.377874623058055</v>
+      </c>
+      <c r="D33" s="100">
+        <f t="shared" si="48"/>
+        <v>36.074602869645119</v>
+      </c>
+      <c r="E33" s="100">
+        <f t="shared" si="49"/>
+        <v>1.0405197202301462</v>
+      </c>
+      <c r="F33" s="100">
+        <f t="shared" si="50"/>
+        <v>0.10039094041019188</v>
+      </c>
+      <c r="G33" s="100">
+        <f t="shared" si="51"/>
+        <v>944.73515641816766</v>
+      </c>
+      <c r="H33" s="100">
+        <f t="shared" si="52"/>
+        <v>1000.4974682334419</v>
+      </c>
+      <c r="I33" s="101">
+        <f t="shared" si="53"/>
+        <v>3.994019083298999E-2</v>
+      </c>
+      <c r="J33" s="100">
+        <f t="shared" si="54"/>
+        <v>8.6627224959699448E-2</v>
+      </c>
+      <c r="K33" s="100">
+        <f t="shared" si="55"/>
+        <v>0.65413543788372275</v>
+      </c>
+      <c r="L33" s="100">
+        <f t="shared" si="56"/>
+        <v>1.4408265228379544</v>
+      </c>
+      <c r="M33" s="100">
+        <f t="shared" si="57"/>
+        <v>4.155855619148139E-2</v>
+      </c>
+      <c r="N33" s="100">
+        <f t="shared" si="58"/>
+        <v>4.0096333178863902E-3</v>
+      </c>
+      <c r="O33" s="100">
+        <f t="shared" si="59"/>
+        <v>37.732902433976264</v>
+      </c>
+      <c r="P33" s="102">
+        <f>ABS(Tabella13[[#This Row],[N1]]-J32)</f>
+        <v>2.9397911885387096E-7</v>
+      </c>
+      <c r="Q33" s="102">
+        <f>ABS(Tabella13[[#This Row],[N2]]-K32)</f>
+        <v>5.5490965905624634E-6</v>
+      </c>
+      <c r="R33" s="41">
+        <f>ABS(Tabella13[[#This Row],[N3]]-L32)</f>
+        <v>1.7196397538743469E-4</v>
+      </c>
+      <c r="S33" s="102">
+        <f>ABS(Tabella13[[#This Row],[N4]]-M32)</f>
+        <v>1.3122405306820184E-7</v>
+      </c>
+      <c r="T33" s="41">
+        <f>ABS(Tabella13[[#This Row],[N5]]-N32)</f>
+        <v>1.1914850816911737E-8</v>
+      </c>
+      <c r="U33" s="41">
+        <f>ABS(Tabella13[[#This Row],[N6]]-O32)</f>
+        <v>1.7806810271281392E-4</v>
+      </c>
+      <c r="V33" s="89"/>
+      <c r="W33" s="89"/>
+      <c r="X33" s="89"/>
+    </row>
+    <row r="34" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="99">
+        <v>24</v>
+      </c>
+      <c r="B34" s="100">
         <f t="shared" si="46"/>
-        <v>5.3602147133680056E-5</v>
-      </c>
-      <c r="J29" s="95">
+        <v>2.1689230886714137</v>
+      </c>
+      <c r="C34" s="100">
+        <f t="shared" si="47"/>
+        <v>16.377820519366296</v>
+      </c>
+      <c r="D34" s="100">
+        <f t="shared" si="48"/>
+        <v>36.072087896505082</v>
+      </c>
+      <c r="E34" s="100">
+        <f t="shared" si="49"/>
+        <v>1.0405195922866943</v>
+      </c>
+      <c r="F34" s="100">
+        <f t="shared" si="50"/>
+        <v>0.10039093924849392</v>
+      </c>
+      <c r="G34" s="100">
+        <f t="shared" si="51"/>
+        <v>944.73949682817158</v>
+      </c>
+      <c r="H34" s="100">
+        <f t="shared" si="52"/>
+        <v>1000.4992388642496</v>
+      </c>
+      <c r="I34" s="101">
+        <f t="shared" si="53"/>
+        <v>3.9940120219524089E-2</v>
+      </c>
+      <c r="J34" s="100">
+        <f t="shared" si="54"/>
+        <v>8.6627048908437768E-2</v>
+      </c>
+      <c r="K34" s="100">
+        <f t="shared" si="55"/>
+        <v>0.65413212047727831</v>
+      </c>
+      <c r="L34" s="100">
+        <f t="shared" si="56"/>
+        <v>1.4407235271556527</v>
+      </c>
+      <c r="M34" s="100">
+        <f t="shared" si="57"/>
+        <v>4.1558477606700762E-2</v>
+      </c>
+      <c r="N34" s="100">
+        <f t="shared" si="58"/>
+        <v>4.0096261825357865E-3</v>
+      </c>
+      <c r="O34" s="100">
+        <f t="shared" si="59"/>
+        <v>37.733009079449872</v>
+      </c>
+      <c r="P34" s="102">
+        <f>ABS(Tabella13[[#This Row],[N1]]-J33)</f>
+        <v>1.7605126167996588E-7</v>
+      </c>
+      <c r="Q34" s="102">
+        <f>ABS(Tabella13[[#This Row],[N2]]-K33)</f>
+        <v>3.3174064444363438E-6</v>
+      </c>
+      <c r="R34" s="41">
+        <f>ABS(Tabella13[[#This Row],[N3]]-L33)</f>
+        <v>1.0299568230176526E-4</v>
+      </c>
+      <c r="S34" s="102">
+        <f>ABS(Tabella13[[#This Row],[N4]]-M33)</f>
+        <v>7.8584780627277695E-8</v>
+      </c>
+      <c r="T34" s="41">
+        <f>ABS(Tabella13[[#This Row],[N5]]-N33)</f>
+        <v>7.1353506037735714E-9</v>
+      </c>
+      <c r="U34" s="41">
+        <f>ABS(Tabella13[[#This Row],[N6]]-O33)</f>
+        <v>1.0664547360761389E-4</v>
+      </c>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+    </row>
+    <row r="35" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="99">
+        <v>25</v>
+      </c>
+      <c r="B35" s="100">
         <f t="shared" si="46"/>
-        <v>3.138183889696694E-4</v>
-      </c>
-      <c r="K29" s="95">
+        <v>2.1689227453714537</v>
+      </c>
+      <c r="C35" s="100">
+        <f t="shared" si="47"/>
+        <v>16.377788174653464</v>
+      </c>
+      <c r="D35" s="100">
+        <f t="shared" si="48"/>
+        <v>36.070581584651421</v>
+      </c>
+      <c r="E35" s="100">
+        <f t="shared" si="49"/>
+        <v>1.0405195156665332</v>
+      </c>
+      <c r="F35" s="100">
+        <f t="shared" si="50"/>
+        <v>0.10039093855279724</v>
+      </c>
+      <c r="G35" s="100">
+        <f t="shared" si="51"/>
+        <v>944.74209631159067</v>
+      </c>
+      <c r="H35" s="100">
+        <f t="shared" si="52"/>
+        <v>1000.5002992704864</v>
+      </c>
+      <c r="I35" s="101">
+        <f t="shared" si="53"/>
+        <v>3.9940077930218122E-2</v>
+      </c>
+      <c r="J35" s="100">
+        <f t="shared" si="54"/>
+        <v>8.6626943474758494E-2</v>
+      </c>
+      <c r="K35" s="100">
+        <f t="shared" si="55"/>
+        <v>0.65413013602026415</v>
+      </c>
+      <c r="L35" s="100">
+        <f t="shared" si="56"/>
+        <v>1.4406618394792685</v>
+      </c>
+      <c r="M35" s="100">
+        <f t="shared" si="57"/>
+        <v>4.1558430543634152E-2</v>
+      </c>
+      <c r="N35" s="100">
+        <f t="shared" si="58"/>
+        <v>4.0096219092864609E-3</v>
+      </c>
+      <c r="O35" s="100">
+        <f t="shared" si="59"/>
+        <v>37.733072950642566</v>
+      </c>
+      <c r="P35" s="102">
+        <f>ABS(Tabella13[[#This Row],[N1]]-J34)</f>
+        <v>1.0543367927329239E-7</v>
+      </c>
+      <c r="Q35" s="102">
+        <f>ABS(Tabella13[[#This Row],[N2]]-K34)</f>
+        <v>1.9844570141591689E-6</v>
+      </c>
+      <c r="R35" s="41">
+        <f>ABS(Tabella13[[#This Row],[N3]]-L34)</f>
+        <v>6.1687676384147849E-5</v>
+      </c>
+      <c r="S35" s="102">
+        <f>ABS(Tabella13[[#This Row],[N4]]-M34)</f>
+        <v>4.7063066610508741E-8</v>
+      </c>
+      <c r="T35" s="41">
+        <f>ABS(Tabella13[[#This Row],[N5]]-N34)</f>
+        <v>4.2732493255731585E-9</v>
+      </c>
+      <c r="U35" s="41">
+        <f>ABS(Tabella13[[#This Row],[N6]]-O34)</f>
+        <v>6.3871192693909506E-5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="99">
+        <v>26</v>
+      </c>
+      <c r="B36" s="100">
         <f t="shared" si="46"/>
-        <v>1.2228749134702399E-2</v>
-      </c>
-      <c r="L29" s="95">
+        <v>2.168922539775779</v>
+      </c>
+      <c r="C36" s="100">
+        <f t="shared" si="47"/>
+        <v>16.377768826197578</v>
+      </c>
+      <c r="D36" s="100">
+        <f t="shared" si="48"/>
+        <v>36.069679402384303</v>
+      </c>
+      <c r="E36" s="100">
+        <f t="shared" si="49"/>
+        <v>1.0405194697800433</v>
+      </c>
+      <c r="F36" s="100">
+        <f t="shared" si="50"/>
+        <v>0.10039093813615543</v>
+      </c>
+      <c r="G36" s="100">
+        <f t="shared" si="51"/>
+        <v>944.74365317191257</v>
+      </c>
+      <c r="H36" s="100">
+        <f t="shared" si="52"/>
+        <v>1000.5009343481864</v>
+      </c>
+      <c r="I36" s="101">
+        <f t="shared" si="53"/>
+        <v>3.9940052603179517E-2</v>
+      </c>
+      <c r="J36" s="100">
+        <f t="shared" si="54"/>
+        <v>8.6626880330866324E-2</v>
+      </c>
+      <c r="K36" s="100">
+        <f t="shared" si="55"/>
+        <v>0.65412894844104486</v>
+      </c>
+      <c r="L36" s="100">
+        <f t="shared" si="56"/>
+        <v>1.4406248927110499</v>
+      </c>
+      <c r="M36" s="100">
+        <f t="shared" si="57"/>
+        <v>4.1558402357647385E-2</v>
+      </c>
+      <c r="N36" s="100">
+        <f t="shared" si="58"/>
+        <v>4.0096193500405884E-3</v>
+      </c>
+      <c r="O36" s="100">
+        <f t="shared" si="59"/>
+        <v>37.733111204206175</v>
+      </c>
+      <c r="P36" s="102">
+        <f>ABS(Tabella13[[#This Row],[N1]]-J35)</f>
+        <v>6.3143892170547389E-8</v>
+      </c>
+      <c r="Q36" s="102">
+        <f>ABS(Tabella13[[#This Row],[N2]]-K35)</f>
+        <v>1.1875792192972412E-6</v>
+      </c>
+      <c r="R36" s="41">
+        <f>ABS(Tabella13[[#This Row],[N3]]-L35)</f>
+        <v>3.6946768218637516E-5</v>
+      </c>
+      <c r="S36" s="102">
+        <f>ABS(Tabella13[[#This Row],[N4]]-M35)</f>
+        <v>2.8185986766793292E-8</v>
+      </c>
+      <c r="T36" s="41">
+        <f>ABS(Tabella13[[#This Row],[N5]]-N35)</f>
+        <v>2.5592458725159917E-9</v>
+      </c>
+      <c r="U36" s="41">
+        <f>ABS(Tabella13[[#This Row],[N6]]-O35)</f>
+        <v>3.8253563609202956E-5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="99">
+        <v>27</v>
+      </c>
+      <c r="B37" s="100">
         <f t="shared" si="46"/>
-        <v>5.0144586158292093E-2</v>
-      </c>
-      <c r="M29" s="95">
+        <v>2.1689224166451893</v>
+      </c>
+      <c r="C37" s="100">
+        <f t="shared" si="47"/>
+        <v>16.377757247300188</v>
+      </c>
+      <c r="D37" s="100">
+        <f t="shared" si="48"/>
+        <v>36.069139055899107</v>
+      </c>
+      <c r="E37" s="100">
+        <f t="shared" si="49"/>
+        <v>1.0405194422987063</v>
+      </c>
+      <c r="F37" s="100">
+        <f t="shared" si="50"/>
+        <v>0.10039093788662896</v>
+      </c>
+      <c r="G37" s="100">
+        <f t="shared" si="51"/>
+        <v>944.7445856025256</v>
+      </c>
+      <c r="H37" s="100">
+        <f t="shared" si="52"/>
+        <v>1000.5013147025554</v>
+      </c>
+      <c r="I37" s="101">
+        <f t="shared" si="53"/>
+        <v>3.994003743457885E-2</v>
+      </c>
+      <c r="J37" s="100">
+        <f t="shared" si="54"/>
+        <v>8.662684251350608E-2</v>
+      </c>
+      <c r="K37" s="100">
+        <f t="shared" si="55"/>
+        <v>0.65412823755161453</v>
+      </c>
+      <c r="L37" s="100">
+        <f t="shared" si="56"/>
+        <v>1.4406027641256405</v>
+      </c>
+      <c r="M37" s="100">
+        <f t="shared" si="57"/>
+        <v>4.1558385476817436E-2</v>
+      </c>
+      <c r="N37" s="100">
+        <f t="shared" si="58"/>
+        <v>4.0096178172844407E-3</v>
+      </c>
+      <c r="O37" s="100">
+        <f t="shared" si="59"/>
+        <v>37.733134115080553</v>
+      </c>
+      <c r="P37" s="102">
+        <f>ABS(Tabella13[[#This Row],[N1]]-J36)</f>
+        <v>3.7817360243330711E-8</v>
+      </c>
+      <c r="Q37" s="102">
+        <f>ABS(Tabella13[[#This Row],[N2]]-K36)</f>
+        <v>7.108894303220481E-7</v>
+      </c>
+      <c r="R37" s="41">
+        <f>ABS(Tabella13[[#This Row],[N3]]-L36)</f>
+        <v>2.2128585409397772E-5</v>
+      </c>
+      <c r="S37" s="102">
+        <f>ABS(Tabella13[[#This Row],[N4]]-M36)</f>
+        <v>1.6880829949161846E-8</v>
+      </c>
+      <c r="T37" s="41">
+        <f>ABS(Tabella13[[#This Row],[N5]]-N36)</f>
+        <v>1.5327561476985441E-9</v>
+      </c>
+      <c r="U37" s="41">
+        <f>ABS(Tabella13[[#This Row],[N6]]-O36)</f>
+        <v>2.2910874378112567E-5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="99">
+        <v>28</v>
+      </c>
+      <c r="B38" s="100">
         <f t="shared" si="46"/>
-        <v>1.0120212015537339E-4</v>
-      </c>
-      <c r="N29" s="95">
-        <f>ABS(N28-N26)</f>
-        <v>5.8037267581887569E-6</v>
-      </c>
-      <c r="O29" s="95">
+        <v>2.1689223429013369</v>
+      </c>
+      <c r="C38" s="100">
+        <f t="shared" si="47"/>
+        <v>16.377750316128243</v>
+      </c>
+      <c r="D38" s="100">
+        <f t="shared" si="48"/>
+        <v>36.06881542533749</v>
+      </c>
+      <c r="E38" s="100">
+        <f t="shared" si="49"/>
+        <v>1.0405194258398971</v>
+      </c>
+      <c r="F38" s="100">
+        <f t="shared" si="50"/>
+        <v>0.10039093773718524</v>
+      </c>
+      <c r="G38" s="100">
+        <f t="shared" si="51"/>
+        <v>944.74514405508842</v>
+      </c>
+      <c r="H38" s="100">
+        <f t="shared" si="52"/>
+        <v>1000.5015425030326</v>
+      </c>
+      <c r="I38" s="101">
+        <f t="shared" si="53"/>
+        <v>3.9940028349860358E-2</v>
+      </c>
+      <c r="J38" s="100">
+        <f t="shared" si="54"/>
+        <v>8.6626819864124946E-2</v>
+      </c>
+      <c r="K38" s="100">
+        <f t="shared" si="55"/>
+        <v>0.65412781193309644</v>
+      </c>
+      <c r="L38" s="100">
+        <f t="shared" si="56"/>
+        <v>1.44058951063386</v>
+      </c>
+      <c r="M38" s="100">
+        <f t="shared" si="57"/>
+        <v>4.1558375366625912E-2</v>
+      </c>
+      <c r="N38" s="100">
+        <f t="shared" si="58"/>
+        <v>4.0096168992922445E-3</v>
+      </c>
+      <c r="O38" s="100">
+        <f t="shared" si="59"/>
+        <v>37.733147836953137</v>
+      </c>
+      <c r="P38" s="102">
+        <f>ABS(Tabella13[[#This Row],[N1]]-J37)</f>
+        <v>2.2649381134498547E-8</v>
+      </c>
+      <c r="Q38" s="102">
+        <f>ABS(Tabella13[[#This Row],[N2]]-K37)</f>
+        <v>4.2561851809619355E-7</v>
+      </c>
+      <c r="R38" s="41">
+        <f>ABS(Tabella13[[#This Row],[N3]]-L37)</f>
+        <v>1.3253491780496063E-5</v>
+      </c>
+      <c r="S38" s="102">
+        <f>ABS(Tabella13[[#This Row],[N4]]-M37)</f>
+        <v>1.0110191524248524E-8</v>
+      </c>
+      <c r="T38" s="41">
+        <f>ABS(Tabella13[[#This Row],[N5]]-N37)</f>
+        <v>9.179921961477433E-10</v>
+      </c>
+      <c r="U38" s="41">
+        <f>ABS(Tabella13[[#This Row],[N6]]-O37)</f>
+        <v>1.3721872583971617E-5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="69">
+        <v>29</v>
+      </c>
+      <c r="B39" s="84">
         <f t="shared" si="46"/>
-        <v>6.2847761676003699E-2</v>
-      </c>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="41"/>
-      <c r="U29" s="41"/>
-    </row>
-    <row r="30" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="96"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="96"/>
-      <c r="F30" s="96"/>
-      <c r="G30" s="96"/>
-      <c r="H30" s="96"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="96"/>
-      <c r="O30" s="96"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="73"/>
-      <c r="S30" s="73"/>
-      <c r="T30" s="73"/>
-      <c r="U30" s="73"/>
-      <c r="V30" s="90"/>
-      <c r="W30" s="90"/>
-      <c r="X30" s="90"/>
-    </row>
-    <row r="31" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="118"/>
-      <c r="E31" s="118"/>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="118"/>
-      <c r="J31" s="118"/>
-      <c r="K31" s="118"/>
-      <c r="L31" s="118"/>
-      <c r="M31" s="118"/>
-      <c r="N31" s="118"/>
-      <c r="O31" s="118"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="120"/>
-      <c r="T31" s="120"/>
-      <c r="U31" s="120"/>
-      <c r="V31" s="98"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="98"/>
-    </row>
-    <row r="32" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="116"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-    </row>
-    <row r="33" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="96"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="96"/>
-      <c r="O33" s="96"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="73"/>
-      <c r="S33" s="73"/>
-      <c r="T33" s="73"/>
-      <c r="U33" s="73"/>
-      <c r="V33" s="90"/>
-      <c r="W33" s="90"/>
-      <c r="X33" s="90"/>
-    </row>
-    <row r="34" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="96"/>
-      <c r="F34" s="96"/>
-      <c r="G34" s="96"/>
-      <c r="H34" s="96"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="96"/>
-      <c r="L34" s="96"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="96"/>
-      <c r="O34" s="96"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="83"/>
-      <c r="T34" s="83"/>
-      <c r="U34" s="83"/>
-      <c r="V34" s="96"/>
-      <c r="W34" s="96"/>
-      <c r="X34" s="96"/>
-    </row>
-    <row r="35" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96"/>
-      <c r="E35" s="96"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="96"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="96"/>
-      <c r="M35" s="96"/>
-      <c r="N35" s="96"/>
-      <c r="O35" s="96"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="41"/>
-    </row>
-    <row r="36" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="96"/>
-      <c r="F36" s="96"/>
-      <c r="G36" s="96"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="96"/>
-      <c r="L36" s="96"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="96"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41"/>
-    </row>
-    <row r="37" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="96"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="96"/>
-      <c r="L37" s="96"/>
-      <c r="M37" s="96"/>
-      <c r="N37" s="96"/>
-      <c r="O37" s="96"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="41"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="41"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="41"/>
-    </row>
-    <row r="38" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="96"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="96"/>
-      <c r="L38" s="96"/>
-      <c r="M38" s="96"/>
-      <c r="N38" s="96"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="41"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="41"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-    </row>
-    <row r="39" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="96"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="96"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="96"/>
-      <c r="G39" s="96"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="96"/>
-      <c r="K39" s="96"/>
-      <c r="L39" s="96"/>
-      <c r="M39" s="96"/>
-      <c r="N39" s="96"/>
-      <c r="O39" s="96"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="41"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="41"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="41"/>
-    </row>
-    <row r="40" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="96"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="96"/>
-      <c r="G40" s="96"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="96"/>
-      <c r="K40" s="96"/>
-      <c r="L40" s="96"/>
-      <c r="M40" s="96"/>
-      <c r="N40" s="96"/>
-      <c r="O40" s="96"/>
+        <v>2.1689222987350436</v>
+      </c>
+      <c r="C39" s="84">
+        <f t="shared" si="47"/>
+        <v>16.377746166347691</v>
+      </c>
+      <c r="D39" s="84">
+        <f t="shared" si="48"/>
+        <v>36.068621593020197</v>
+      </c>
+      <c r="E39" s="84">
+        <f t="shared" si="49"/>
+        <v>1.0405194159824602</v>
+      </c>
+      <c r="F39" s="84">
+        <f t="shared" si="50"/>
+        <v>0.10039093764768099</v>
+      </c>
+      <c r="G39" s="84">
+        <f t="shared" si="51"/>
+        <v>944.74547852573266</v>
+      </c>
+      <c r="H39" s="84">
+        <f t="shared" si="52"/>
+        <v>1000.5016789374657</v>
+      </c>
+      <c r="I39" s="85">
+        <f t="shared" si="53"/>
+        <v>3.9940022908835901E-2</v>
+      </c>
+      <c r="J39" s="84">
+        <f t="shared" si="54"/>
+        <v>8.6626806298962661E-2</v>
+      </c>
+      <c r="K39" s="84">
+        <f t="shared" si="55"/>
+        <v>0.65412755707902615</v>
+      </c>
+      <c r="L39" s="84">
+        <f t="shared" si="56"/>
+        <v>1.4405815727153599</v>
+      </c>
+      <c r="M39" s="84">
+        <f t="shared" si="57"/>
+        <v>4.1558369311428013E-2</v>
+      </c>
+      <c r="N39" s="84">
+        <f t="shared" si="58"/>
+        <v>4.0096163494878949E-3</v>
+      </c>
+      <c r="O39" s="84">
+        <f t="shared" si="59"/>
+        <v>37.733156055336899</v>
+      </c>
+      <c r="P39" s="102">
+        <f>ABS(Tabella13[[#This Row],[N1]]-J38)</f>
+        <v>1.3565162285122945E-8</v>
+      </c>
+      <c r="Q39" s="102">
+        <f>ABS(Tabella13[[#This Row],[N2]]-K38)</f>
+        <v>2.5485407029179896E-7</v>
+      </c>
+      <c r="R39" s="41">
+        <f>ABS(Tabella13[[#This Row],[N3]]-L38)</f>
+        <v>7.9379185000671981E-6</v>
+      </c>
+      <c r="S39" s="102">
+        <f>ABS(Tabella13[[#This Row],[N4]]-M38)</f>
+        <v>6.0551978986467248E-9</v>
+      </c>
+      <c r="T39" s="41">
+        <f>ABS(Tabella13[[#This Row],[N5]]-N38)</f>
+        <v>5.4980434961715563E-10</v>
+      </c>
+      <c r="U39" s="41">
+        <f>ABS(Tabella13[[#This Row],[N6]]-O38)</f>
+        <v>8.2183837619709266E-6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="95"/>
+      <c r="G40" s="95"/>
+      <c r="H40" s="95"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="95"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="95"/>
+      <c r="N40" s="95"/>
+      <c r="O40" s="95"/>
       <c r="P40" s="41"/>
       <c r="Q40" s="41"/>
       <c r="R40" s="41"/>
@@ -10034,21 +10715,21 @@
       <c r="T40" s="41"/>
       <c r="U40" s="41"/>
     </row>
-    <row r="41" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="96"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="96"/>
-      <c r="F41" s="96"/>
-      <c r="G41" s="96"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="96"/>
-      <c r="K41" s="96"/>
-      <c r="L41" s="96"/>
-      <c r="M41" s="96"/>
-      <c r="N41" s="96"/>
-      <c r="O41" s="96"/>
+    <row r="41" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="95"/>
+      <c r="G41" s="95"/>
+      <c r="H41" s="95"/>
+      <c r="I41" s="96"/>
+      <c r="J41" s="95"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="95"/>
+      <c r="N41" s="95"/>
+      <c r="O41" s="95"/>
       <c r="P41" s="41"/>
       <c r="Q41" s="41"/>
       <c r="R41" s="41"/>
@@ -10056,21 +10737,52 @@
       <c r="T41" s="41"/>
       <c r="U41" s="41"/>
     </row>
-    <row r="42" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="96"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96"/>
-      <c r="E42" s="96"/>
-      <c r="F42" s="96"/>
-      <c r="G42" s="96"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="96"/>
-      <c r="K42" s="96"/>
-      <c r="L42" s="96"/>
-      <c r="M42" s="96"/>
-      <c r="N42" s="96"/>
-      <c r="O42" s="96"/>
+    <row r="42" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="84">
+        <v>2.1739130431163289</v>
+      </c>
+      <c r="C42" s="84">
+        <v>16.666666630594161</v>
+      </c>
+      <c r="D42" s="84">
+        <v>37.499998470017871</v>
+      </c>
+      <c r="E42" s="84">
+        <v>1.0416666665861476</v>
+      </c>
+      <c r="F42" s="84">
+        <v>0.1004016064249736</v>
+      </c>
+      <c r="G42" s="84">
+        <v>941.5173546654371</v>
+      </c>
+      <c r="H42" s="84">
+        <v>999.0000010821766</v>
+      </c>
+      <c r="I42" s="85">
+        <v>3.9999999956712939E-2</v>
+      </c>
+      <c r="J42" s="84">
+        <v>8.6956521630550856E-2</v>
+      </c>
+      <c r="K42" s="84">
+        <v>0.66666666450231549</v>
+      </c>
+      <c r="L42" s="84">
+        <v>1.4999999371774502</v>
+      </c>
+      <c r="M42" s="84">
+        <v>4.1666666618355212E-2</v>
+      </c>
+      <c r="N42" s="84">
+        <v>4.0160642526528532E-3</v>
+      </c>
+      <c r="O42" s="84">
+        <v>37.660694145861967</v>
+      </c>
       <c r="P42" s="41"/>
       <c r="Q42" s="41"/>
       <c r="R42" s="41"/>
@@ -10078,21 +10790,66 @@
       <c r="T42" s="41"/>
       <c r="U42" s="41"/>
     </row>
-    <row r="43" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="96"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="96"/>
-      <c r="F43" s="96"/>
-      <c r="G43" s="96"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="96"/>
-      <c r="K43" s="96"/>
-      <c r="L43" s="96"/>
-      <c r="M43" s="96"/>
-      <c r="N43" s="96"/>
-      <c r="O43" s="96"/>
+    <row r="43" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43" s="94">
+        <f>ABS(B42-B39)</f>
+        <v>4.990744381285328E-3</v>
+      </c>
+      <c r="C43" s="94">
+        <f t="shared" ref="C43:O43" si="60">ABS(C42-C39)</f>
+        <v>0.28892046424646978</v>
+      </c>
+      <c r="D43" s="94">
+        <f t="shared" si="60"/>
+        <v>1.4313768769976747</v>
+      </c>
+      <c r="E43" s="94">
+        <f t="shared" si="60"/>
+        <v>1.1472506036873664E-3</v>
+      </c>
+      <c r="F43" s="94">
+        <f t="shared" si="60"/>
+        <v>1.0668777292610621E-5</v>
+      </c>
+      <c r="G43" s="94">
+        <f t="shared" si="60"/>
+        <v>3.2281238602955682</v>
+      </c>
+      <c r="H43" s="94">
+        <f t="shared" si="60"/>
+        <v>1.501677855289131</v>
+      </c>
+      <c r="I43" s="94">
+        <f t="shared" si="60"/>
+        <v>5.9977047877038392E-5</v>
+      </c>
+      <c r="J43" s="94">
+        <f t="shared" si="60"/>
+        <v>3.2971533158819566E-4</v>
+      </c>
+      <c r="K43" s="94">
+        <f t="shared" si="60"/>
+        <v>1.2539107423289342E-2</v>
+      </c>
+      <c r="L43" s="94">
+        <f t="shared" si="60"/>
+        <v>5.9418364462090256E-2</v>
+      </c>
+      <c r="M43" s="94">
+        <f t="shared" si="60"/>
+        <v>1.0829730692719919E-4</v>
+      </c>
+      <c r="N43" s="94">
+        <f t="shared" si="60"/>
+        <v>6.4479031649583227E-6</v>
+      </c>
+      <c r="O43" s="94">
+        <f t="shared" si="60"/>
+        <v>7.2461909474931474E-2</v>
+      </c>
       <c r="P43" s="41"/>
       <c r="Q43" s="41"/>
       <c r="R43" s="41"/>
@@ -10100,21 +10857,21 @@
       <c r="T43" s="41"/>
       <c r="U43" s="41"/>
     </row>
-    <row r="44" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="96"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96"/>
-      <c r="E44" s="96"/>
-      <c r="F44" s="96"/>
-      <c r="G44" s="96"/>
-      <c r="H44" s="96"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="96"/>
-      <c r="K44" s="96"/>
-      <c r="L44" s="96"/>
-      <c r="M44" s="96"/>
-      <c r="N44" s="96"/>
-      <c r="O44" s="96"/>
+    <row r="44" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="95"/>
+      <c r="H44" s="95"/>
+      <c r="I44" s="96"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="95"/>
+      <c r="N44" s="95"/>
+      <c r="O44" s="95"/>
       <c r="P44" s="41"/>
       <c r="Q44" s="41"/>
       <c r="R44" s="41"/>
@@ -10122,21 +10879,21 @@
       <c r="T44" s="41"/>
       <c r="U44" s="41"/>
     </row>
-    <row r="45" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="96"/>
-      <c r="H45" s="96"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="96"/>
-      <c r="K45" s="96"/>
-      <c r="L45" s="96"/>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
-      <c r="O45" s="96"/>
+    <row r="45" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="96"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
+      <c r="L45" s="95"/>
+      <c r="M45" s="95"/>
+      <c r="N45" s="95"/>
+      <c r="O45" s="95"/>
       <c r="P45" s="41"/>
       <c r="Q45" s="41"/>
       <c r="R45" s="41"/>
@@ -10144,21 +10901,21 @@
       <c r="T45" s="41"/>
       <c r="U45" s="41"/>
     </row>
-    <row r="46" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="96"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96"/>
-      <c r="F46" s="96"/>
-      <c r="G46" s="96"/>
-      <c r="H46" s="96"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="96"/>
-      <c r="K46" s="96"/>
-      <c r="L46" s="96"/>
-      <c r="M46" s="96"/>
-      <c r="N46" s="96"/>
-      <c r="O46" s="96"/>
+    <row r="46" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
       <c r="P46" s="41"/>
       <c r="Q46" s="41"/>
       <c r="R46" s="41"/>
@@ -10166,21 +10923,21 @@
       <c r="T46" s="41"/>
       <c r="U46" s="41"/>
     </row>
-    <row r="47" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="96"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="97"/>
-      <c r="J47" s="96"/>
-      <c r="K47" s="96"/>
-      <c r="L47" s="96"/>
-      <c r="M47" s="96"/>
-      <c r="N47" s="96"/>
-      <c r="O47" s="96"/>
+    <row r="47" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
       <c r="P47" s="41"/>
       <c r="Q47" s="41"/>
       <c r="R47" s="41"/>
@@ -10188,21 +10945,21 @@
       <c r="T47" s="41"/>
       <c r="U47" s="41"/>
     </row>
-    <row r="48" spans="2:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="96"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
-      <c r="F48" s="96"/>
-      <c r="G48" s="96"/>
-      <c r="H48" s="96"/>
-      <c r="I48" s="97"/>
-      <c r="J48" s="96"/>
-      <c r="K48" s="96"/>
-      <c r="L48" s="96"/>
-      <c r="M48" s="96"/>
-      <c r="N48" s="96"/>
-      <c r="O48" s="96"/>
+    <row r="48" spans="1:24" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="95"/>
+      <c r="G48" s="95"/>
+      <c r="H48" s="95"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="95"/>
+      <c r="K48" s="95"/>
+      <c r="L48" s="95"/>
+      <c r="M48" s="95"/>
+      <c r="N48" s="95"/>
+      <c r="O48" s="95"/>
       <c r="P48" s="41"/>
       <c r="Q48" s="41"/>
       <c r="R48" s="41"/>
@@ -10211,20 +10968,20 @@
       <c r="U48" s="41"/>
     </row>
     <row r="49" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="96"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="96"/>
-      <c r="E49" s="96"/>
-      <c r="F49" s="96"/>
-      <c r="G49" s="96"/>
-      <c r="H49" s="96"/>
-      <c r="I49" s="97"/>
-      <c r="J49" s="96"/>
-      <c r="K49" s="96"/>
-      <c r="L49" s="96"/>
-      <c r="M49" s="96"/>
-      <c r="N49" s="96"/>
-      <c r="O49" s="96"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="95"/>
+      <c r="G49" s="95"/>
+      <c r="H49" s="95"/>
+      <c r="I49" s="96"/>
+      <c r="J49" s="95"/>
+      <c r="K49" s="95"/>
+      <c r="L49" s="95"/>
+      <c r="M49" s="95"/>
+      <c r="N49" s="95"/>
+      <c r="O49" s="95"/>
       <c r="P49" s="41"/>
       <c r="Q49" s="41"/>
       <c r="R49" s="41"/>
@@ -10233,20 +10990,20 @@
       <c r="U49" s="41"/>
     </row>
     <row r="50" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="96"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="96"/>
-      <c r="E50" s="96"/>
-      <c r="F50" s="96"/>
-      <c r="G50" s="96"/>
-      <c r="H50" s="96"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="96"/>
-      <c r="K50" s="96"/>
-      <c r="L50" s="96"/>
-      <c r="M50" s="96"/>
-      <c r="N50" s="96"/>
-      <c r="O50" s="96"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="95"/>
+      <c r="G50" s="95"/>
+      <c r="H50" s="95"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="95"/>
+      <c r="K50" s="95"/>
+      <c r="L50" s="95"/>
+      <c r="M50" s="95"/>
+      <c r="N50" s="95"/>
+      <c r="O50" s="95"/>
       <c r="P50" s="41"/>
       <c r="Q50" s="41"/>
       <c r="R50" s="41"/>
@@ -10269,12 +11026,12 @@
       <c r="M51" s="71"/>
       <c r="N51" s="71"/>
       <c r="O51" s="71"/>
-      <c r="P51" s="119"/>
-      <c r="Q51" s="119"/>
-      <c r="R51" s="119"/>
-      <c r="S51" s="119"/>
-      <c r="T51" s="119"/>
-      <c r="U51" s="119"/>
+      <c r="P51" s="98"/>
+      <c r="Q51" s="98"/>
+      <c r="R51" s="98"/>
+      <c r="S51" s="98"/>
+      <c r="T51" s="98"/>
+      <c r="U51" s="98"/>
     </row>
     <row r="52" spans="1:21" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
@@ -10454,8 +11211,8 @@
     <mergeCell ref="H1:M1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="P11:U26">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="P11:U39">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>$R$7</formula>
     </cfRule>
   </conditionalFormatting>
